--- a/assets/images/Math181GradebookFa17.xlsx
+++ b/assets/images/Math181GradebookFa17.xlsx
@@ -16,24 +16,24 @@
     <sheet name="Checklist" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CORE">'GRADE BOOK'!$BU$17,'GRADE BOOK'!$BY$17,'GRADE BOOK'!$CA$17,'GRADE BOOK'!$CD$17,'GRADE BOOK'!$CF$17,'GRADE BOOK'!$CI$17,'GRADE BOOK'!$CK$17,'GRADE BOOK'!$CL$17,'GRADE BOOK'!$CO$17,'GRADE BOOK'!$CQ$17</definedName>
+    <definedName name="CORE">'GRADE BOOK'!$BT$17,'GRADE BOOK'!$BY$17,'GRADE BOOK'!$CA$17,'GRADE BOOK'!$CD$17,'GRADE BOOK'!$CF$17,'GRADE BOOK'!$CI$17,'GRADE BOOK'!$CK$17,'GRADE BOOK'!$CL$17,'GRADE BOOK'!$CO$17,'GRADE BOOK'!$CQ$17</definedName>
     <definedName name="Getting_Started">'GRADE BOOK'!$CX$17</definedName>
-    <definedName name="GP">'GRADE BOOK'!$J$17:$AJ$93</definedName>
-    <definedName name="GradeTable">'GRADE BOOK'!$G$4:$S$12</definedName>
-    <definedName name="Journal">'GRADE BOOK'!$BN$17:$BR$17</definedName>
-    <definedName name="Problems">'GRADE BOOK'!$BS$17:$CQ$17</definedName>
-    <definedName name="Quizzes">'GRADE BOOK'!$AK$17:$BL$17</definedName>
+    <definedName name="GP">'GRADE BOOK'!$I$17:$AI$93</definedName>
+    <definedName name="GradeTable">'GRADE BOOK'!$G$4:$R$12</definedName>
+    <definedName name="Journal">'GRADE BOOK'!$BM$17:$BQ$17</definedName>
+    <definedName name="Problems">'GRADE BOOK'!$BR$17:$CQ$17</definedName>
+    <definedName name="Quizzes">'GRADE BOOK'!$AJ$17:$BK$17</definedName>
     <definedName name="Specifications" comment="This contains the minimum requirement for each grade.">'GRADE BOOK'!$A$8:$F$14</definedName>
     <definedName name="Teaching">'GRADE BOOK'!$CR$17:$CW$17</definedName>
     <definedName name="TotalPoints">'GRADE BOOK'!#REF!</definedName>
-    <definedName name="WeBWorKScore">'GRADE BOOK'!$BM$17</definedName>
+    <definedName name="WeBWorKScore">'GRADE BOOK'!$BL$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
   <si>
     <t>F</t>
   </si>
@@ -545,11 +545,14 @@
   <si>
     <t>Miniproject 11</t>
   </si>
+  <si>
+    <t>Objective 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1121,7 +1124,7 @@
       <xdr:rowOff>240195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
@@ -1422,9 +1425,9 @@
   <dimension ref="A1:EB59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="CU21" sqref="CU21:CU22"/>
+      <selection pane="topRight" activeCell="I16" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1432,15 +1435,17 @@
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="36" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="65" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="69" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="75" max="97" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="35" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="64" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="68" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="69" max="71" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.5703125" style="1" customWidth="1"/>
+    <col min="76" max="97" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="98" max="100" width="4.5703125" style="1" customWidth="1"/>
     <col min="101" max="101" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="102" max="103" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -1470,12 +1475,12 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
     </row>
     <row r="4" spans="1:132" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -1483,12 +1488,12 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:132" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1496,12 +1501,12 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:132" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1509,10 +1514,10 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:132" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -1520,7 +1525,6 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1541,6 +1545,7 @@
       <c r="F8" s="10">
         <v>26</v>
       </c>
+      <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -1548,12 +1553,12 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="AK8" s="1"/>
-      <c r="AM8" s="15"/>
-      <c r="BN8" s="1"/>
-      <c r="BR8" s="15"/>
-      <c r="BU8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AL8" s="15"/>
+      <c r="BM8" s="1"/>
+      <c r="BQ8" s="15"/>
+      <c r="BT8" s="1"/>
+      <c r="BV8" s="15"/>
       <c r="BW8" s="15"/>
       <c r="CX8" s="1"/>
       <c r="CZ8" s="48"/>
@@ -1578,6 +1583,7 @@
       <c r="F9" s="10">
         <v>24</v>
       </c>
+      <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -1585,12 +1591,12 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="AK9" s="1"/>
-      <c r="AM9" s="15"/>
-      <c r="BN9" s="1"/>
-      <c r="BR9" s="15"/>
-      <c r="BU9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AL9" s="15"/>
+      <c r="BM9" s="1"/>
+      <c r="BQ9" s="15"/>
+      <c r="BT9" s="1"/>
+      <c r="BV9" s="15"/>
       <c r="BW9" s="15"/>
       <c r="CX9" s="1"/>
       <c r="CZ9" s="48"/>
@@ -1615,6 +1621,7 @@
       <c r="F10" s="10">
         <v>126</v>
       </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -1622,12 +1629,12 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="AK10" s="1"/>
-      <c r="AM10" s="15"/>
-      <c r="BN10" s="1"/>
-      <c r="BR10" s="15"/>
-      <c r="BU10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AL10" s="15"/>
+      <c r="BM10" s="1"/>
+      <c r="BQ10" s="15"/>
+      <c r="BT10" s="1"/>
+      <c r="BV10" s="15"/>
       <c r="BW10" s="15"/>
       <c r="CX10" s="1"/>
       <c r="CZ10" s="48"/>
@@ -1652,6 +1659,7 @@
       <c r="F11" s="10">
         <v>3</v>
       </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -1659,12 +1667,12 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="AK11" s="1"/>
-      <c r="AM11" s="15"/>
-      <c r="BN11" s="1"/>
-      <c r="BR11" s="15"/>
-      <c r="BU11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AL11" s="15"/>
+      <c r="BM11" s="1"/>
+      <c r="BQ11" s="15"/>
+      <c r="BT11" s="1"/>
+      <c r="BV11" s="15"/>
       <c r="BW11" s="15"/>
       <c r="CX11" s="1"/>
       <c r="CZ11" s="48"/>
@@ -1689,6 +1697,7 @@
       <c r="F12" s="10">
         <v>23</v>
       </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -1696,12 +1705,12 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="AK12" s="1"/>
-      <c r="AM12" s="15"/>
-      <c r="BN12" s="1"/>
-      <c r="BR12" s="15"/>
-      <c r="BU12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AL12" s="15"/>
+      <c r="BM12" s="1"/>
+      <c r="BQ12" s="15"/>
+      <c r="BT12" s="1"/>
+      <c r="BV12" s="15"/>
       <c r="BW12" s="15"/>
       <c r="CX12" s="1"/>
       <c r="CZ12" s="48"/>
@@ -1726,11 +1735,12 @@
       <c r="F13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AM13" s="15"/>
-      <c r="BN13" s="1"/>
-      <c r="BR13" s="15"/>
-      <c r="BU13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AL13" s="15"/>
+      <c r="BM13" s="1"/>
+      <c r="BQ13" s="15"/>
+      <c r="BT13" s="1"/>
+      <c r="BV13" s="15"/>
       <c r="BW13" s="15"/>
       <c r="CX13" s="1"/>
       <c r="CZ13" s="48"/>
@@ -1755,11 +1765,12 @@
       <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="AK14" s="1"/>
-      <c r="AM14" s="15"/>
-      <c r="BN14" s="1"/>
-      <c r="BR14" s="15"/>
-      <c r="BU14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AL14" s="15"/>
+      <c r="BM14" s="1"/>
+      <c r="BQ14" s="15"/>
+      <c r="BT14" s="1"/>
+      <c r="BV14" s="15"/>
       <c r="BW14" s="15"/>
       <c r="CX14" s="1"/>
       <c r="CZ14" s="48"/>
@@ -1797,203 +1808,203 @@
       <c r="H16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>15</v>
+      <c r="I16" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U16" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V16" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y16" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA16" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB16" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC16" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD16" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE16" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ16" s="18" t="s">
         <v>46</v>
       </c>
+      <c r="AJ16" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="AK16" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL16" s="19" t="s">
         <v>88</v>
       </c>
+      <c r="AL16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="AM16" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN16" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AO16" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AQ16" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AR16" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AS16" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AT16" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU16" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AV16" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW16" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX16" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY16" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AZ16" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA16" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB16" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BC16" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BD16" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BE16" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BF16" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BG16" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BH16" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BI16" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BJ16" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BK16" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BL16" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM16" s="20" t="s">
         <v>73</v>
       </c>
+      <c r="BM16" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="BN16" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO16" s="21" t="s">
         <v>89</v>
       </c>
+      <c r="BO16" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="BP16" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ16" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="BQ16" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="BR16" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BS16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="BT16" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="BT16" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="BU16" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV16" s="21" t="s">
         <v>90</v>
+      </c>
+      <c r="BV16" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="BW16" s="18" t="s">
         <v>108</v>
@@ -2118,32 +2129,31 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="33" t="str">
-        <f t="shared" ref="C17:C56" si="0">IF(COUNTIF(D17:I17,"F")&gt;1,"F",IF(COUNTIF(D17:I17,"F")=1,"D-",IF(COUNTIF(D17:I17,"D")&gt;2,"D",IF(COUNTIF(D17:I17,"D")=2,"D+",IF(COUNTIF(D17:I17,"D")=1,"C-",IF(COUNTIF(D17:I17,"C")&gt;2,"C",IF(COUNTIF(D17:I17,"C")=2,"C+",IF(COUNTIF(D17:I17,"C")=1,"B-",IF(COUNTIF(D17:I17,"B")&gt;2,"B",IF(COUNTIF(D17:I17,"B")=2,"B+",IF(COUNTIF(D17:I17,"B")=1,"A-","A")))))))))))</f>
+        <f>IF(COUNTIF(D17:H17,"F")&gt;1,"F",IF(COUNTIF(D17:H17,"F")=1,"D-",IF(COUNTIF(D17:H17,"D")&gt;2,"D",IF(COUNTIF(D17:H17,"D")=2,"D+",IF(COUNTIF(D17:H17,"D")=1,"C-",IF(COUNTIF(D17:H17,"C")&gt;2,"C",IF(COUNTIF(D17:H17,"C")=2,"C+",IF(COUNTIF(D17:H17,"C")=1,"B-",IF(COUNTIF(D17:H17,"B")&gt;2,"B",IF(COUNTIF(D17:H17,"B")=2,"B+",IF(COUNTIF(D17:H17,"B")=1,"A-","A")))))))))))</f>
         <v>B-</v>
       </c>
       <c r="D17" s="27" t="str">
-        <f t="shared" ref="D17:D56" si="1">AL17</f>
+        <f t="shared" ref="D17:D56" si="0">AK17</f>
         <v>B</v>
       </c>
       <c r="E17" s="28" t="str">
-        <f>BO17</f>
+        <f>BN17</f>
         <v>B</v>
       </c>
       <c r="F17" s="28" t="str">
-        <f t="shared" ref="F17:F56" si="2">BQ17</f>
+        <f t="shared" ref="F17:F56" si="1">BP17</f>
         <v>B</v>
       </c>
       <c r="G17" s="28" t="str">
-        <f t="shared" ref="G17:G56" si="3">BV17</f>
+        <f t="shared" ref="G17:G56" si="2">BU17</f>
         <v>B</v>
       </c>
       <c r="H17" s="28" t="str">
-        <f t="shared" ref="H17:H56" si="4">CY17</f>
+        <f t="shared" ref="H17:H56" si="3">CY17</f>
         <v>C</v>
       </c>
-      <c r="I17" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="I17" s="26">
+        <v>1</v>
       </c>
       <c r="J17" s="26">
         <v>1</v>
@@ -2211,34 +2221,34 @@
       <c r="AE17" s="26">
         <v>1</v>
       </c>
-      <c r="AF17" s="26">
-        <v>1</v>
-      </c>
+      <c r="AF17" s="26"/>
       <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="29">
-        <f>SUM('GRADE BOOK'!$J17:$AJ17)</f>
+      <c r="AH17" s="26">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="29">
+        <f>SUM('GRADE BOOK'!$I17:$AI17)</f>
         <v>24</v>
       </c>
-      <c r="AL17" s="29" t="str">
-        <f t="shared" ref="AL17:AL56" si="5">HLOOKUP(AK17,A$8:F$13,6,TRUE)</f>
+      <c r="AK17" s="29" t="str">
+        <f>HLOOKUP(AJ17,A$8:F$13,6,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="AM17" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="30"/>
+      <c r="AL17" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30">
+        <v>1</v>
+      </c>
       <c r="AO17" s="30">
         <v>1</v>
       </c>
-      <c r="AP17" s="30">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="31">
+        <v>1</v>
+      </c>
       <c r="AR17" s="31">
         <v>1</v>
       </c>
@@ -2266,68 +2276,66 @@
       <c r="AZ17" s="31">
         <v>1</v>
       </c>
-      <c r="BA17" s="31">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="30"/>
+      <c r="BA17" s="30"/>
+      <c r="BB17" s="31">
+        <v>1</v>
+      </c>
       <c r="BC17" s="31">
         <v>1</v>
       </c>
       <c r="BD17" s="31">
         <v>1</v>
       </c>
-      <c r="BE17" s="31">
-        <v>1</v>
-      </c>
+      <c r="BE17" s="30"/>
       <c r="BF17" s="30"/>
       <c r="BG17" s="30"/>
       <c r="BH17" s="30"/>
-      <c r="BI17" s="30"/>
+      <c r="BI17" s="30">
+        <v>1</v>
+      </c>
       <c r="BJ17" s="30">
         <v>1</v>
       </c>
       <c r="BK17" s="30">
         <v>1</v>
       </c>
-      <c r="BL17" s="30">
-        <v>1</v>
-      </c>
-      <c r="BM17" s="31">
-        <v>1</v>
-      </c>
-      <c r="BN17" s="29">
-        <f>SUM(AM17:BM17)</f>
+      <c r="BL17" s="31">
+        <v>1</v>
+      </c>
+      <c r="BM17" s="29">
+        <f>SUM(AL17:BL17)</f>
         <v>20</v>
       </c>
-      <c r="BO17" s="29" t="str">
-        <f t="shared" ref="BO17:BO56" si="6">HLOOKUP(BN17,A$9:F$13,5,TRUE)</f>
+      <c r="BN17" s="29" t="str">
+        <f>HLOOKUP(BM17,A$9:F$13,5,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="BP17" s="29">
+      <c r="BO17" s="29">
         <v>116</v>
       </c>
-      <c r="BQ17" s="29" t="str">
-        <f t="shared" ref="BQ17:BQ56" si="7">HLOOKUP(BP17,B$10:F$13,4,TRUE)</f>
+      <c r="BP17" s="29" t="str">
+        <f>HLOOKUP(BO17,B$10:F$13,4,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="BR17" s="30">
-        <v>1</v>
-      </c>
-      <c r="BS17" s="30"/>
-      <c r="BT17" s="30">
-        <v>1</v>
-      </c>
-      <c r="BU17" s="29">
-        <f>SUM(BR17:BT17)</f>
+      <c r="BQ17" s="30">
+        <v>1</v>
+      </c>
+      <c r="BR17" s="30"/>
+      <c r="BS17" s="30">
+        <v>1</v>
+      </c>
+      <c r="BT17" s="29">
+        <f>SUM(BQ17:BS17)</f>
         <v>2</v>
       </c>
-      <c r="BV17" s="29" t="str">
-        <f t="shared" ref="BV17:BV56" si="8">HLOOKUP(BU17,A$11:F$13,3,TRUE)</f>
+      <c r="BU17" s="29" t="str">
+        <f>HLOOKUP(BT17,A$11:F$13,3,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="BW17" s="31">
-        <v>1</v>
-      </c>
+      <c r="BV17" s="31">
+        <v>1</v>
+      </c>
+      <c r="BW17" s="31"/>
       <c r="BX17" s="31">
         <v>1</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="CX17" s="29">
-        <f>SUM(BW17:CW17)</f>
+        <f>SUM(BV17:CW17)</f>
         <v>17</v>
       </c>
       <c r="CY17" s="29" t="str">
@@ -2401,32 +2409,31 @@
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="33" t="str">
+        <f>IF(COUNTIF(D18:H18,"F")&gt;1,"F",IF(COUNTIF(D18:H18,"F")=1,"D-",IF(COUNTIF(D18:H18,"D")&gt;2,"D",IF(COUNTIF(D18:H18,"D")=2,"D+",IF(COUNTIF(D18:H18,"D")=1,"C-",IF(COUNTIF(D18:H18,"C")&gt;2,"C",IF(COUNTIF(D18:H18,"C")=2,"C+",IF(COUNTIF(D18:H18,"C")=1,"B-",IF(COUNTIF(D18:H18,"B")&gt;2,"B",IF(COUNTIF(D18:H18,"B")=2,"B+",IF(COUNTIF(D18:H18,"B")=1,"A-","A")))))))))))</f>
+        <v>B-</v>
+      </c>
+      <c r="D18" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B-</v>
-      </c>
-      <c r="D18" s="27" t="str">
+        <v>B</v>
+      </c>
+      <c r="E18" s="28" t="str">
+        <f t="shared" ref="E18:E56" si="4">BN18</f>
+        <v>C</v>
+      </c>
+      <c r="F18" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="E18" s="28" t="str">
-        <f t="shared" ref="E18:E56" si="9">BO18</f>
-        <v>C</v>
-      </c>
-      <c r="F18" s="28" t="str">
+        <v>A</v>
+      </c>
+      <c r="G18" s="28" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="H18" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="H18" s="28" t="str">
-        <f t="shared" si="4"/>
         <v>B</v>
       </c>
-      <c r="I18" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="I18" s="26">
+        <v>1</v>
       </c>
       <c r="J18" s="26">
         <v>1</v>
@@ -2491,56 +2498,56 @@
       <c r="AD18" s="26">
         <v>1</v>
       </c>
-      <c r="AE18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26">
+        <v>1</v>
+      </c>
       <c r="AI18" s="26">
         <v>1</v>
       </c>
-      <c r="AJ18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="29">
-        <f>SUM('GRADE BOOK'!$J18:$AJ18)</f>
+      <c r="AJ18" s="29">
+        <f>SUM('GRADE BOOK'!$I18:$AI18)</f>
         <v>25</v>
       </c>
-      <c r="AL18" s="29" t="str">
-        <f t="shared" si="5"/>
+      <c r="AK18" s="29" t="str">
+        <f>HLOOKUP(AJ18,A$8:F$13,6,TRUE)</f>
         <v>B</v>
       </c>
+      <c r="AL18" s="30">
+        <v>1</v>
+      </c>
       <c r="AM18" s="30">
         <v>1</v>
       </c>
-      <c r="AN18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30">
+        <v>1</v>
+      </c>
       <c r="AP18" s="30">
         <v>1</v>
       </c>
-      <c r="AQ18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30">
+        <v>1</v>
+      </c>
       <c r="AS18" s="30">
         <v>1</v>
       </c>
       <c r="AT18" s="30">
         <v>1</v>
       </c>
-      <c r="AU18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="30"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="31">
+        <v>1</v>
+      </c>
       <c r="AW18" s="31">
         <v>1</v>
       </c>
-      <c r="AX18" s="31">
+      <c r="AX18" s="30">
         <v>1</v>
       </c>
       <c r="AY18" s="30">
@@ -2561,55 +2568,53 @@
       <c r="BD18" s="30">
         <v>1</v>
       </c>
-      <c r="BE18" s="30">
-        <v>1</v>
-      </c>
+      <c r="BE18" s="30"/>
       <c r="BF18" s="30"/>
-      <c r="BG18" s="30"/>
+      <c r="BG18" s="31">
+        <v>1</v>
+      </c>
       <c r="BH18" s="31">
         <v>1</v>
       </c>
       <c r="BI18" s="31">
         <v>1</v>
       </c>
-      <c r="BJ18" s="31">
-        <v>1</v>
-      </c>
+      <c r="BJ18" s="30"/>
       <c r="BK18" s="30"/>
       <c r="BL18" s="30"/>
-      <c r="BM18" s="30"/>
-      <c r="BN18" s="29">
-        <f t="shared" ref="BN18:BN56" si="10">SUM(AM18:BM18)</f>
+      <c r="BM18" s="29">
+        <f t="shared" ref="BM18:BM56" si="5">SUM(AL18:BL18)</f>
         <v>19</v>
       </c>
-      <c r="BO18" s="29" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN18" s="29" t="str">
+        <f>HLOOKUP(BM18,A$9:F$13,5,TRUE)</f>
         <v>C</v>
       </c>
-      <c r="BP18" s="29">
+      <c r="BO18" s="29">
         <v>140</v>
       </c>
-      <c r="BQ18" s="29" t="str">
-        <f t="shared" si="7"/>
+      <c r="BP18" s="29" t="str">
+        <f>HLOOKUP(BO18,B$10:F$13,4,TRUE)</f>
         <v>A</v>
       </c>
+      <c r="BQ18" s="30">
+        <v>1</v>
+      </c>
       <c r="BR18" s="30">
         <v>1</v>
       </c>
       <c r="BS18" s="30">
         <v>1</v>
       </c>
-      <c r="BT18" s="30">
-        <v>1</v>
-      </c>
-      <c r="BU18" s="29">
-        <f t="shared" ref="BU18:BU56" si="11">SUM(BR18:BT18)</f>
+      <c r="BT18" s="29">
+        <f t="shared" ref="BT18:BT56" si="6">SUM(BQ18:BS18)</f>
         <v>3</v>
       </c>
-      <c r="BV18" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BU18" s="29" t="str">
+        <f>HLOOKUP(BT18,A$11:F$13,3,TRUE)</f>
         <v>A</v>
       </c>
+      <c r="BV18" s="30"/>
       <c r="BW18" s="30"/>
       <c r="BX18" s="30"/>
       <c r="BY18" s="30">
@@ -2681,33 +2686,30 @@
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="33" t="str">
+        <f>IF(COUNTIF(D19:H19,"F")&gt;1,"F",IF(COUNTIF(D19:H19,"F")=1,"D-",IF(COUNTIF(D19:H19,"D")&gt;2,"D",IF(COUNTIF(D19:H19,"D")=2,"D+",IF(COUNTIF(D19:H19,"D")=1,"C-",IF(COUNTIF(D19:H19,"C")&gt;2,"C",IF(COUNTIF(D19:H19,"C")=2,"C+",IF(COUNTIF(D19:H19,"C")=1,"B-",IF(COUNTIF(D19:H19,"B")&gt;2,"B",IF(COUNTIF(D19:H19,"B")=2,"B+",IF(COUNTIF(D19:H19,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D19" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="E19" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F19" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E19" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F19" s="28" t="str">
+      <c r="G19" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G19" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H19" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H19" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I19" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
@@ -2734,18 +2736,18 @@
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="29">
-        <f>SUM('GRADE BOOK'!$J19:$AJ19)</f>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ19" s="29">
+        <f>SUM('GRADE BOOK'!$I19:$AI19)</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="29" t="str">
+        <f>HLOOKUP(AJ19,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL19" s="30"/>
       <c r="AM19" s="30"/>
       <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
+      <c r="AO19" s="31"/>
       <c r="AP19" s="31"/>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="31"/>
@@ -2769,33 +2771,33 @@
       <c r="BJ19" s="31"/>
       <c r="BK19" s="31"/>
       <c r="BL19" s="31"/>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO19" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP19" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ19" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM19" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="29" t="str">
+        <f>HLOOKUP(BM19,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO19" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="29" t="str">
+        <f>HLOOKUP(BO19,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ19" s="31"/>
       <c r="BR19" s="31"/>
       <c r="BS19" s="31"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV19" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT19" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="29" t="str">
+        <f>HLOOKUP(BT19,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV19" s="31"/>
       <c r="BW19" s="31"/>
       <c r="BX19" s="31"/>
       <c r="BY19" s="31"/>
@@ -2824,7 +2826,7 @@
       <c r="CV19" s="31"/>
       <c r="CW19" s="31"/>
       <c r="CX19" s="29">
-        <f t="shared" ref="CX19:CX56" si="12">SUM(BW19:CW19)</f>
+        <f t="shared" ref="CX19:CX56" si="7">SUM(BV19:CW19)</f>
         <v>0</v>
       </c>
       <c r="CY19" s="29" t="str">
@@ -2837,33 +2839,30 @@
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="33" t="str">
+        <f>IF(COUNTIF(D20:H20,"F")&gt;1,"F",IF(COUNTIF(D20:H20,"F")=1,"D-",IF(COUNTIF(D20:H20,"D")&gt;2,"D",IF(COUNTIF(D20:H20,"D")=2,"D+",IF(COUNTIF(D20:H20,"D")=1,"C-",IF(COUNTIF(D20:H20,"C")&gt;2,"C",IF(COUNTIF(D20:H20,"C")=2,"C+",IF(COUNTIF(D20:H20,"C")=1,"B-",IF(COUNTIF(D20:H20,"B")&gt;2,"B",IF(COUNTIF(D20:H20,"B")=2,"B+",IF(COUNTIF(D20:H20,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D20" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="E20" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F20" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E20" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F20" s="28" t="str">
+      <c r="G20" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G20" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H20" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H20" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I20" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
@@ -2890,15 +2889,15 @@
       <c r="AG20" s="26"/>
       <c r="AH20" s="26"/>
       <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="29">
-        <f>SUM('GRADE BOOK'!$J20:$AJ20)</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ20" s="29">
+        <f>SUM('GRADE BOOK'!$I20:$AI20)</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="29" t="str">
+        <f>HLOOKUP(AJ20,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL20" s="30"/>
       <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
       <c r="AO20" s="30"/>
@@ -2925,33 +2924,33 @@
       <c r="BJ20" s="30"/>
       <c r="BK20" s="30"/>
       <c r="BL20" s="30"/>
-      <c r="BM20" s="30"/>
-      <c r="BN20" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO20" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP20" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ20" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM20" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN20" s="29" t="str">
+        <f>HLOOKUP(BM20,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO20" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="29" t="str">
+        <f>HLOOKUP(BO20,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ20" s="30"/>
       <c r="BR20" s="30"/>
       <c r="BS20" s="30"/>
-      <c r="BT20" s="30"/>
-      <c r="BU20" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV20" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT20" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU20" s="29" t="str">
+        <f>HLOOKUP(BT20,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV20" s="30"/>
       <c r="BW20" s="30"/>
       <c r="BX20" s="30"/>
       <c r="BY20" s="30"/>
@@ -2980,7 +2979,7 @@
       <c r="CV20" s="30"/>
       <c r="CW20" s="30"/>
       <c r="CX20" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY20" s="29" t="str">
@@ -2992,33 +2991,30 @@
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="33" t="str">
+        <f>IF(COUNTIF(D21:H21,"F")&gt;1,"F",IF(COUNTIF(D21:H21,"F")=1,"D-",IF(COUNTIF(D21:H21,"D")&gt;2,"D",IF(COUNTIF(D21:H21,"D")=2,"D+",IF(COUNTIF(D21:H21,"D")=1,"C-",IF(COUNTIF(D21:H21,"C")&gt;2,"C",IF(COUNTIF(D21:H21,"C")=2,"C+",IF(COUNTIF(D21:H21,"C")=1,"B-",IF(COUNTIF(D21:H21,"B")&gt;2,"B",IF(COUNTIF(D21:H21,"B")=2,"B+",IF(COUNTIF(D21:H21,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D21" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D21" s="27" t="str">
+      <c r="E21" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F21" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E21" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F21" s="28" t="str">
+      <c r="G21" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G21" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H21" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H21" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I21" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -3045,15 +3041,15 @@
       <c r="AG21" s="26"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="29">
-        <f>SUM('GRADE BOOK'!$J21:$AJ21)</f>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ21" s="29">
+        <f>SUM('GRADE BOOK'!$I21:$AI21)</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="29" t="str">
+        <f>HLOOKUP(AJ21,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL21" s="30"/>
       <c r="AM21" s="30"/>
       <c r="AN21" s="30"/>
       <c r="AO21" s="30"/>
@@ -3080,33 +3076,33 @@
       <c r="BJ21" s="30"/>
       <c r="BK21" s="30"/>
       <c r="BL21" s="30"/>
-      <c r="BM21" s="30"/>
-      <c r="BN21" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO21" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP21" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM21" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN21" s="29" t="str">
+        <f>HLOOKUP(BM21,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="29" t="str">
+        <f>HLOOKUP(BO21,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ21" s="30"/>
       <c r="BR21" s="30"/>
       <c r="BS21" s="30"/>
-      <c r="BT21" s="30"/>
-      <c r="BU21" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV21" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="29" t="str">
+        <f>HLOOKUP(BT21,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV21" s="30"/>
       <c r="BW21" s="30"/>
       <c r="BX21" s="30"/>
       <c r="BY21" s="30"/>
@@ -3135,7 +3131,7 @@
       <c r="CV21" s="30"/>
       <c r="CW21" s="30"/>
       <c r="CX21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY21" s="29" t="str">
@@ -3147,33 +3143,30 @@
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="33" t="str">
+        <f>IF(COUNTIF(D22:H22,"F")&gt;1,"F",IF(COUNTIF(D22:H22,"F")=1,"D-",IF(COUNTIF(D22:H22,"D")&gt;2,"D",IF(COUNTIF(D22:H22,"D")=2,"D+",IF(COUNTIF(D22:H22,"D")=1,"C-",IF(COUNTIF(D22:H22,"C")&gt;2,"C",IF(COUNTIF(D22:H22,"C")=2,"C+",IF(COUNTIF(D22:H22,"C")=1,"B-",IF(COUNTIF(D22:H22,"B")&gt;2,"B",IF(COUNTIF(D22:H22,"B")=2,"B+",IF(COUNTIF(D22:H22,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D22" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D22" s="27" t="str">
+      <c r="E22" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F22" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E22" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F22" s="28" t="str">
+      <c r="G22" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G22" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H22" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H22" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I22" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
@@ -3200,15 +3193,15 @@
       <c r="AG22" s="26"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="29">
-        <f>SUM('GRADE BOOK'!$J22:$AJ22)</f>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ22" s="29">
+        <f>SUM('GRADE BOOK'!$I22:$AI22)</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="29" t="str">
+        <f>HLOOKUP(AJ22,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL22" s="30"/>
       <c r="AM22" s="30"/>
       <c r="AN22" s="30"/>
       <c r="AO22" s="30"/>
@@ -3235,33 +3228,33 @@
       <c r="BJ22" s="30"/>
       <c r="BK22" s="30"/>
       <c r="BL22" s="30"/>
-      <c r="BM22" s="30"/>
-      <c r="BN22" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO22" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP22" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ22" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM22" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN22" s="29" t="str">
+        <f>HLOOKUP(BM22,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO22" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="29" t="str">
+        <f>HLOOKUP(BO22,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ22" s="30"/>
       <c r="BR22" s="30"/>
       <c r="BS22" s="30"/>
-      <c r="BT22" s="30"/>
-      <c r="BU22" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV22" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT22" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU22" s="29" t="str">
+        <f>HLOOKUP(BT22,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV22" s="30"/>
       <c r="BW22" s="30"/>
       <c r="BX22" s="30"/>
       <c r="BY22" s="30"/>
@@ -3290,7 +3283,7 @@
       <c r="CV22" s="30"/>
       <c r="CW22" s="30"/>
       <c r="CX22" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY22" s="29" t="str">
@@ -3302,33 +3295,30 @@
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="33" t="str">
+        <f>IF(COUNTIF(D23:H23,"F")&gt;1,"F",IF(COUNTIF(D23:H23,"F")=1,"D-",IF(COUNTIF(D23:H23,"D")&gt;2,"D",IF(COUNTIF(D23:H23,"D")=2,"D+",IF(COUNTIF(D23:H23,"D")=1,"C-",IF(COUNTIF(D23:H23,"C")&gt;2,"C",IF(COUNTIF(D23:H23,"C")=2,"C+",IF(COUNTIF(D23:H23,"C")=1,"B-",IF(COUNTIF(D23:H23,"B")&gt;2,"B",IF(COUNTIF(D23:H23,"B")=2,"B+",IF(COUNTIF(D23:H23,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D23" s="27" t="str">
+      <c r="E23" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F23" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E23" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F23" s="28" t="str">
+      <c r="G23" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G23" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H23" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H23" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I23" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
@@ -3355,15 +3345,15 @@
       <c r="AG23" s="26"/>
       <c r="AH23" s="26"/>
       <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="29">
-        <f>SUM('GRADE BOOK'!$J23:$AJ23)</f>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ23" s="29">
+        <f>SUM('GRADE BOOK'!$I23:$AI23)</f>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="29" t="str">
+        <f>HLOOKUP(AJ23,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL23" s="30"/>
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
       <c r="AO23" s="30"/>
@@ -3390,33 +3380,33 @@
       <c r="BJ23" s="30"/>
       <c r="BK23" s="30"/>
       <c r="BL23" s="30"/>
-      <c r="BM23" s="30"/>
-      <c r="BN23" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO23" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP23" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM23" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN23" s="29" t="str">
+        <f>HLOOKUP(BM23,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO23" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="29" t="str">
+        <f>HLOOKUP(BO23,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ23" s="30"/>
       <c r="BR23" s="30"/>
       <c r="BS23" s="30"/>
-      <c r="BT23" s="30"/>
-      <c r="BU23" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV23" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT23" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU23" s="29" t="str">
+        <f>HLOOKUP(BT23,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV23" s="30"/>
       <c r="BW23" s="30"/>
       <c r="BX23" s="30"/>
       <c r="BY23" s="30"/>
@@ -3445,7 +3435,7 @@
       <c r="CV23" s="30"/>
       <c r="CW23" s="30"/>
       <c r="CX23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY23" s="29" t="str">
@@ -3457,33 +3447,30 @@
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="33" t="str">
+        <f>IF(COUNTIF(D24:H24,"F")&gt;1,"F",IF(COUNTIF(D24:H24,"F")=1,"D-",IF(COUNTIF(D24:H24,"D")&gt;2,"D",IF(COUNTIF(D24:H24,"D")=2,"D+",IF(COUNTIF(D24:H24,"D")=1,"C-",IF(COUNTIF(D24:H24,"C")&gt;2,"C",IF(COUNTIF(D24:H24,"C")=2,"C+",IF(COUNTIF(D24:H24,"C")=1,"B-",IF(COUNTIF(D24:H24,"B")&gt;2,"B",IF(COUNTIF(D24:H24,"B")=2,"B+",IF(COUNTIF(D24:H24,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D24" s="27" t="str">
+      <c r="E24" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F24" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E24" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F24" s="28" t="str">
+      <c r="G24" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G24" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H24" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H24" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I24" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
@@ -3510,15 +3497,15 @@
       <c r="AG24" s="26"/>
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="29">
-        <f>SUM('GRADE BOOK'!$J24:$AJ24)</f>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ24" s="29">
+        <f>SUM('GRADE BOOK'!$I24:$AI24)</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="29" t="str">
+        <f>HLOOKUP(AJ24,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL24" s="30"/>
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
       <c r="AO24" s="30"/>
@@ -3545,33 +3532,33 @@
       <c r="BJ24" s="30"/>
       <c r="BK24" s="30"/>
       <c r="BL24" s="30"/>
-      <c r="BM24" s="30"/>
-      <c r="BN24" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO24" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP24" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM24" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN24" s="29" t="str">
+        <f>HLOOKUP(BM24,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO24" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="29" t="str">
+        <f>HLOOKUP(BO24,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ24" s="30"/>
       <c r="BR24" s="30"/>
       <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
-      <c r="BU24" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV24" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT24" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU24" s="29" t="str">
+        <f>HLOOKUP(BT24,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV24" s="30"/>
       <c r="BW24" s="30"/>
       <c r="BX24" s="30"/>
       <c r="BY24" s="30"/>
@@ -3600,7 +3587,7 @@
       <c r="CV24" s="30"/>
       <c r="CW24" s="30"/>
       <c r="CX24" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY24" s="29" t="str">
@@ -3612,33 +3599,30 @@
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="33" t="str">
+        <f>IF(COUNTIF(D25:H25,"F")&gt;1,"F",IF(COUNTIF(D25:H25,"F")=1,"D-",IF(COUNTIF(D25:H25,"D")&gt;2,"D",IF(COUNTIF(D25:H25,"D")=2,"D+",IF(COUNTIF(D25:H25,"D")=1,"C-",IF(COUNTIF(D25:H25,"C")&gt;2,"C",IF(COUNTIF(D25:H25,"C")=2,"C+",IF(COUNTIF(D25:H25,"C")=1,"B-",IF(COUNTIF(D25:H25,"B")&gt;2,"B",IF(COUNTIF(D25:H25,"B")=2,"B+",IF(COUNTIF(D25:H25,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D25" s="27" t="str">
+      <c r="E25" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F25" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E25" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F25" s="28" t="str">
+      <c r="G25" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G25" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H25" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H25" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I25" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
@@ -3665,15 +3649,15 @@
       <c r="AG25" s="26"/>
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="29">
-        <f>SUM('GRADE BOOK'!$J25:$AJ25)</f>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ25" s="29">
+        <f>SUM('GRADE BOOK'!$I25:$AI25)</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="29" t="str">
+        <f>HLOOKUP(AJ25,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="30"/>
       <c r="AO25" s="30"/>
@@ -3700,33 +3684,33 @@
       <c r="BJ25" s="30"/>
       <c r="BK25" s="30"/>
       <c r="BL25" s="30"/>
-      <c r="BM25" s="30"/>
-      <c r="BN25" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO25" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ25" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM25" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN25" s="29" t="str">
+        <f>HLOOKUP(BM25,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO25" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="29" t="str">
+        <f>HLOOKUP(BO25,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ25" s="30"/>
       <c r="BR25" s="30"/>
       <c r="BS25" s="30"/>
-      <c r="BT25" s="30"/>
-      <c r="BU25" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV25" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT25" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU25" s="29" t="str">
+        <f>HLOOKUP(BT25,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV25" s="30"/>
       <c r="BW25" s="30"/>
       <c r="BX25" s="30"/>
       <c r="BY25" s="30"/>
@@ -3755,7 +3739,7 @@
       <c r="CV25" s="30"/>
       <c r="CW25" s="30"/>
       <c r="CX25" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY25" s="29" t="str">
@@ -3767,33 +3751,30 @@
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="33" t="str">
+        <f>IF(COUNTIF(D26:H26,"F")&gt;1,"F",IF(COUNTIF(D26:H26,"F")=1,"D-",IF(COUNTIF(D26:H26,"D")&gt;2,"D",IF(COUNTIF(D26:H26,"D")=2,"D+",IF(COUNTIF(D26:H26,"D")=1,"C-",IF(COUNTIF(D26:H26,"C")&gt;2,"C",IF(COUNTIF(D26:H26,"C")=2,"C+",IF(COUNTIF(D26:H26,"C")=1,"B-",IF(COUNTIF(D26:H26,"B")&gt;2,"B",IF(COUNTIF(D26:H26,"B")=2,"B+",IF(COUNTIF(D26:H26,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D26" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D26" s="27" t="str">
+      <c r="E26" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F26" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E26" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F26" s="28" t="str">
+      <c r="G26" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G26" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H26" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H26" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I26" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
@@ -3820,15 +3801,15 @@
       <c r="AG26" s="26"/>
       <c r="AH26" s="26"/>
       <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="29">
-        <f>SUM('GRADE BOOK'!$J26:$AJ26)</f>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ26" s="29">
+        <f>SUM('GRADE BOOK'!$I26:$AI26)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="29" t="str">
+        <f>HLOOKUP(AJ26,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL26" s="30"/>
       <c r="AM26" s="30"/>
       <c r="AN26" s="30"/>
       <c r="AO26" s="30"/>
@@ -3855,33 +3836,33 @@
       <c r="BJ26" s="30"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
-      <c r="BM26" s="30"/>
-      <c r="BN26" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO26" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP26" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ26" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM26" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN26" s="29" t="str">
+        <f>HLOOKUP(BM26,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO26" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="29" t="str">
+        <f>HLOOKUP(BO26,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ26" s="30"/>
       <c r="BR26" s="30"/>
       <c r="BS26" s="30"/>
-      <c r="BT26" s="30"/>
-      <c r="BU26" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV26" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT26" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU26" s="29" t="str">
+        <f>HLOOKUP(BT26,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV26" s="30"/>
       <c r="BW26" s="30"/>
       <c r="BX26" s="30"/>
       <c r="BY26" s="30"/>
@@ -3910,7 +3891,7 @@
       <c r="CV26" s="30"/>
       <c r="CW26" s="30"/>
       <c r="CX26" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY26" s="29" t="str">
@@ -3922,33 +3903,30 @@
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="33" t="str">
+        <f>IF(COUNTIF(D27:H27,"F")&gt;1,"F",IF(COUNTIF(D27:H27,"F")=1,"D-",IF(COUNTIF(D27:H27,"D")&gt;2,"D",IF(COUNTIF(D27:H27,"D")=2,"D+",IF(COUNTIF(D27:H27,"D")=1,"C-",IF(COUNTIF(D27:H27,"C")&gt;2,"C",IF(COUNTIF(D27:H27,"C")=2,"C+",IF(COUNTIF(D27:H27,"C")=1,"B-",IF(COUNTIF(D27:H27,"B")&gt;2,"B",IF(COUNTIF(D27:H27,"B")=2,"B+",IF(COUNTIF(D27:H27,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D27" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D27" s="27" t="str">
+      <c r="E27" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F27" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E27" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F27" s="28" t="str">
+      <c r="G27" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G27" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H27" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H27" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I27" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
@@ -3975,15 +3953,15 @@
       <c r="AG27" s="26"/>
       <c r="AH27" s="26"/>
       <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="29">
-        <f>SUM('GRADE BOOK'!$J27:$AJ27)</f>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ27" s="29">
+        <f>SUM('GRADE BOOK'!$I27:$AI27)</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="29" t="str">
+        <f>HLOOKUP(AJ27,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL27" s="30"/>
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
       <c r="AO27" s="30"/>
@@ -4010,33 +3988,33 @@
       <c r="BJ27" s="30"/>
       <c r="BK27" s="30"/>
       <c r="BL27" s="30"/>
-      <c r="BM27" s="30"/>
-      <c r="BN27" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO27" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP27" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ27" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM27" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN27" s="29" t="str">
+        <f>HLOOKUP(BM27,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="29" t="str">
+        <f>HLOOKUP(BO27,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ27" s="30"/>
       <c r="BR27" s="30"/>
       <c r="BS27" s="30"/>
-      <c r="BT27" s="30"/>
-      <c r="BU27" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV27" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT27" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU27" s="29" t="str">
+        <f>HLOOKUP(BT27,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV27" s="30"/>
       <c r="BW27" s="30"/>
       <c r="BX27" s="30"/>
       <c r="BY27" s="30"/>
@@ -4065,7 +4043,7 @@
       <c r="CV27" s="30"/>
       <c r="CW27" s="30"/>
       <c r="CX27" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY27" s="29" t="str">
@@ -4077,33 +4055,30 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="33" t="str">
+        <f>IF(COUNTIF(D28:H28,"F")&gt;1,"F",IF(COUNTIF(D28:H28,"F")=1,"D-",IF(COUNTIF(D28:H28,"D")&gt;2,"D",IF(COUNTIF(D28:H28,"D")=2,"D+",IF(COUNTIF(D28:H28,"D")=1,"C-",IF(COUNTIF(D28:H28,"C")&gt;2,"C",IF(COUNTIF(D28:H28,"C")=2,"C+",IF(COUNTIF(D28:H28,"C")=1,"B-",IF(COUNTIF(D28:H28,"B")&gt;2,"B",IF(COUNTIF(D28:H28,"B")=2,"B+",IF(COUNTIF(D28:H28,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D28" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D28" s="27" t="str">
+      <c r="E28" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F28" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E28" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F28" s="28" t="str">
+      <c r="G28" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G28" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H28" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H28" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I28" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
@@ -4130,15 +4105,15 @@
       <c r="AG28" s="26"/>
       <c r="AH28" s="26"/>
       <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="29">
-        <f>SUM('GRADE BOOK'!$J28:$AJ28)</f>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ28" s="29">
+        <f>SUM('GRADE BOOK'!$I28:$AI28)</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="29" t="str">
+        <f>HLOOKUP(AJ28,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL28" s="30"/>
       <c r="AM28" s="30"/>
       <c r="AN28" s="30"/>
       <c r="AO28" s="30"/>
@@ -4165,33 +4140,33 @@
       <c r="BJ28" s="30"/>
       <c r="BK28" s="30"/>
       <c r="BL28" s="30"/>
-      <c r="BM28" s="30"/>
-      <c r="BN28" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO28" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP28" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ28" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM28" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN28" s="29" t="str">
+        <f>HLOOKUP(BM28,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO28" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="29" t="str">
+        <f>HLOOKUP(BO28,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ28" s="30"/>
       <c r="BR28" s="30"/>
       <c r="BS28" s="30"/>
-      <c r="BT28" s="30"/>
-      <c r="BU28" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV28" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT28" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU28" s="29" t="str">
+        <f>HLOOKUP(BT28,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV28" s="30"/>
       <c r="BW28" s="30"/>
       <c r="BX28" s="30"/>
       <c r="BY28" s="30"/>
@@ -4220,7 +4195,7 @@
       <c r="CV28" s="30"/>
       <c r="CW28" s="30"/>
       <c r="CX28" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY28" s="29" t="str">
@@ -4232,33 +4207,30 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="33" t="str">
+        <f>IF(COUNTIF(D29:H29,"F")&gt;1,"F",IF(COUNTIF(D29:H29,"F")=1,"D-",IF(COUNTIF(D29:H29,"D")&gt;2,"D",IF(COUNTIF(D29:H29,"D")=2,"D+",IF(COUNTIF(D29:H29,"D")=1,"C-",IF(COUNTIF(D29:H29,"C")&gt;2,"C",IF(COUNTIF(D29:H29,"C")=2,"C+",IF(COUNTIF(D29:H29,"C")=1,"B-",IF(COUNTIF(D29:H29,"B")&gt;2,"B",IF(COUNTIF(D29:H29,"B")=2,"B+",IF(COUNTIF(D29:H29,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D29" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D29" s="27" t="str">
+      <c r="E29" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F29" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E29" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F29" s="28" t="str">
+      <c r="G29" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G29" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H29" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H29" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I29" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
@@ -4285,15 +4257,15 @@
       <c r="AG29" s="26"/>
       <c r="AH29" s="26"/>
       <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="29">
-        <f>SUM('GRADE BOOK'!$J29:$AJ29)</f>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ29" s="29">
+        <f>SUM('GRADE BOOK'!$I29:$AI29)</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="29" t="str">
+        <f>HLOOKUP(AJ29,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL29" s="30"/>
       <c r="AM29" s="30"/>
       <c r="AN29" s="30"/>
       <c r="AO29" s="30"/>
@@ -4320,33 +4292,33 @@
       <c r="BJ29" s="30"/>
       <c r="BK29" s="30"/>
       <c r="BL29" s="30"/>
-      <c r="BM29" s="30"/>
-      <c r="BN29" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO29" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP29" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ29" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM29" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN29" s="29" t="str">
+        <f>HLOOKUP(BM29,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO29" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP29" s="29" t="str">
+        <f>HLOOKUP(BO29,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ29" s="30"/>
       <c r="BR29" s="30"/>
       <c r="BS29" s="30"/>
-      <c r="BT29" s="30"/>
-      <c r="BU29" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV29" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT29" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU29" s="29" t="str">
+        <f>HLOOKUP(BT29,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV29" s="30"/>
       <c r="BW29" s="30"/>
       <c r="BX29" s="30"/>
       <c r="BY29" s="30"/>
@@ -4375,7 +4347,7 @@
       <c r="CV29" s="30"/>
       <c r="CW29" s="30"/>
       <c r="CX29" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY29" s="29" t="str">
@@ -4387,33 +4359,30 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33" t="str">
+        <f>IF(COUNTIF(D30:H30,"F")&gt;1,"F",IF(COUNTIF(D30:H30,"F")=1,"D-",IF(COUNTIF(D30:H30,"D")&gt;2,"D",IF(COUNTIF(D30:H30,"D")=2,"D+",IF(COUNTIF(D30:H30,"D")=1,"C-",IF(COUNTIF(D30:H30,"C")&gt;2,"C",IF(COUNTIF(D30:H30,"C")=2,"C+",IF(COUNTIF(D30:H30,"C")=1,"B-",IF(COUNTIF(D30:H30,"B")&gt;2,"B",IF(COUNTIF(D30:H30,"B")=2,"B+",IF(COUNTIF(D30:H30,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D30" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D30" s="27" t="str">
+      <c r="E30" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F30" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E30" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F30" s="28" t="str">
+      <c r="G30" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G30" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H30" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H30" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I30" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
@@ -4440,15 +4409,15 @@
       <c r="AG30" s="26"/>
       <c r="AH30" s="26"/>
       <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="29">
-        <f>SUM('GRADE BOOK'!$J30:$AJ30)</f>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ30" s="29">
+        <f>SUM('GRADE BOOK'!$I30:$AI30)</f>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="29" t="str">
+        <f>HLOOKUP(AJ30,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL30" s="30"/>
       <c r="AM30" s="30"/>
       <c r="AN30" s="30"/>
       <c r="AO30" s="30"/>
@@ -4475,33 +4444,33 @@
       <c r="BJ30" s="30"/>
       <c r="BK30" s="30"/>
       <c r="BL30" s="30"/>
-      <c r="BM30" s="30"/>
-      <c r="BN30" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO30" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP30" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ30" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM30" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN30" s="29" t="str">
+        <f>HLOOKUP(BM30,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO30" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="29" t="str">
+        <f>HLOOKUP(BO30,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ30" s="30"/>
       <c r="BR30" s="30"/>
       <c r="BS30" s="30"/>
-      <c r="BT30" s="30"/>
-      <c r="BU30" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV30" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT30" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU30" s="29" t="str">
+        <f>HLOOKUP(BT30,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV30" s="30"/>
       <c r="BW30" s="30"/>
       <c r="BX30" s="30"/>
       <c r="BY30" s="30"/>
@@ -4530,7 +4499,7 @@
       <c r="CV30" s="30"/>
       <c r="CW30" s="30"/>
       <c r="CX30" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY30" s="29" t="str">
@@ -4542,33 +4511,30 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="33" t="str">
+        <f>IF(COUNTIF(D31:H31,"F")&gt;1,"F",IF(COUNTIF(D31:H31,"F")=1,"D-",IF(COUNTIF(D31:H31,"D")&gt;2,"D",IF(COUNTIF(D31:H31,"D")=2,"D+",IF(COUNTIF(D31:H31,"D")=1,"C-",IF(COUNTIF(D31:H31,"C")&gt;2,"C",IF(COUNTIF(D31:H31,"C")=2,"C+",IF(COUNTIF(D31:H31,"C")=1,"B-",IF(COUNTIF(D31:H31,"B")&gt;2,"B",IF(COUNTIF(D31:H31,"B")=2,"B+",IF(COUNTIF(D31:H31,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D31" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D31" s="27" t="str">
+      <c r="E31" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F31" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E31" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F31" s="28" t="str">
+      <c r="G31" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G31" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H31" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H31" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I31" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
       <c r="L31" s="26"/>
@@ -4595,15 +4561,15 @@
       <c r="AG31" s="26"/>
       <c r="AH31" s="26"/>
       <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="29">
-        <f>SUM('GRADE BOOK'!$J31:$AJ31)</f>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ31" s="29">
+        <f>SUM('GRADE BOOK'!$I31:$AI31)</f>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="29" t="str">
+        <f>HLOOKUP(AJ31,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL31" s="30"/>
       <c r="AM31" s="30"/>
       <c r="AN31" s="30"/>
       <c r="AO31" s="30"/>
@@ -4630,33 +4596,33 @@
       <c r="BJ31" s="30"/>
       <c r="BK31" s="30"/>
       <c r="BL31" s="30"/>
-      <c r="BM31" s="30"/>
-      <c r="BN31" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO31" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP31" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM31" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN31" s="29" t="str">
+        <f>HLOOKUP(BM31,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO31" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="29" t="str">
+        <f>HLOOKUP(BO31,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ31" s="30"/>
       <c r="BR31" s="30"/>
       <c r="BS31" s="30"/>
-      <c r="BT31" s="30"/>
-      <c r="BU31" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV31" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT31" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU31" s="29" t="str">
+        <f>HLOOKUP(BT31,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV31" s="30"/>
       <c r="BW31" s="30"/>
       <c r="BX31" s="30"/>
       <c r="BY31" s="30"/>
@@ -4685,7 +4651,7 @@
       <c r="CV31" s="30"/>
       <c r="CW31" s="30"/>
       <c r="CX31" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY31" s="29" t="str">
@@ -4697,33 +4663,30 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="33" t="str">
+        <f>IF(COUNTIF(D32:H32,"F")&gt;1,"F",IF(COUNTIF(D32:H32,"F")=1,"D-",IF(COUNTIF(D32:H32,"D")&gt;2,"D",IF(COUNTIF(D32:H32,"D")=2,"D+",IF(COUNTIF(D32:H32,"D")=1,"C-",IF(COUNTIF(D32:H32,"C")&gt;2,"C",IF(COUNTIF(D32:H32,"C")=2,"C+",IF(COUNTIF(D32:H32,"C")=1,"B-",IF(COUNTIF(D32:H32,"B")&gt;2,"B",IF(COUNTIF(D32:H32,"B")=2,"B+",IF(COUNTIF(D32:H32,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D32" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D32" s="27" t="str">
+      <c r="E32" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F32" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E32" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F32" s="28" t="str">
+      <c r="G32" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G32" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H32" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H32" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I32" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
@@ -4750,15 +4713,15 @@
       <c r="AG32" s="26"/>
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="29">
-        <f>SUM('GRADE BOOK'!$J32:$AJ32)</f>
-        <v>0</v>
-      </c>
-      <c r="AL32" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ32" s="29">
+        <f>SUM('GRADE BOOK'!$I32:$AI32)</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="29" t="str">
+        <f>HLOOKUP(AJ32,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL32" s="30"/>
       <c r="AM32" s="30"/>
       <c r="AN32" s="30"/>
       <c r="AO32" s="30"/>
@@ -4785,33 +4748,33 @@
       <c r="BJ32" s="30"/>
       <c r="BK32" s="30"/>
       <c r="BL32" s="30"/>
-      <c r="BM32" s="30"/>
-      <c r="BN32" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO32" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP32" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ32" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM32" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN32" s="29" t="str">
+        <f>HLOOKUP(BM32,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO32" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="29" t="str">
+        <f>HLOOKUP(BO32,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ32" s="30"/>
       <c r="BR32" s="30"/>
       <c r="BS32" s="30"/>
-      <c r="BT32" s="30"/>
-      <c r="BU32" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV32" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT32" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU32" s="29" t="str">
+        <f>HLOOKUP(BT32,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV32" s="30"/>
       <c r="BW32" s="30"/>
       <c r="BX32" s="30"/>
       <c r="BY32" s="30"/>
@@ -4840,7 +4803,7 @@
       <c r="CV32" s="30"/>
       <c r="CW32" s="30"/>
       <c r="CX32" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY32" s="29" t="str">
@@ -4852,33 +4815,30 @@
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="33" t="str">
+        <f>IF(COUNTIF(D33:H33,"F")&gt;1,"F",IF(COUNTIF(D33:H33,"F")=1,"D-",IF(COUNTIF(D33:H33,"D")&gt;2,"D",IF(COUNTIF(D33:H33,"D")=2,"D+",IF(COUNTIF(D33:H33,"D")=1,"C-",IF(COUNTIF(D33:H33,"C")&gt;2,"C",IF(COUNTIF(D33:H33,"C")=2,"C+",IF(COUNTIF(D33:H33,"C")=1,"B-",IF(COUNTIF(D33:H33,"B")&gt;2,"B",IF(COUNTIF(D33:H33,"B")=2,"B+",IF(COUNTIF(D33:H33,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D33" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D33" s="27" t="str">
+      <c r="E33" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F33" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E33" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F33" s="28" t="str">
+      <c r="G33" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G33" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H33" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H33" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I33" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
@@ -4905,15 +4865,15 @@
       <c r="AG33" s="26"/>
       <c r="AH33" s="26"/>
       <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="29">
-        <f>SUM('GRADE BOOK'!$J33:$AJ33)</f>
-        <v>0</v>
-      </c>
-      <c r="AL33" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ33" s="29">
+        <f>SUM('GRADE BOOK'!$I33:$AI33)</f>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="29" t="str">
+        <f>HLOOKUP(AJ33,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL33" s="30"/>
       <c r="AM33" s="30"/>
       <c r="AN33" s="30"/>
       <c r="AO33" s="30"/>
@@ -4940,33 +4900,33 @@
       <c r="BJ33" s="30"/>
       <c r="BK33" s="30"/>
       <c r="BL33" s="30"/>
-      <c r="BM33" s="30"/>
-      <c r="BN33" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO33" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP33" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ33" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM33" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN33" s="29" t="str">
+        <f>HLOOKUP(BM33,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO33" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="29" t="str">
+        <f>HLOOKUP(BO33,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ33" s="30"/>
       <c r="BR33" s="30"/>
       <c r="BS33" s="30"/>
-      <c r="BT33" s="30"/>
-      <c r="BU33" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV33" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT33" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU33" s="29" t="str">
+        <f>HLOOKUP(BT33,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV33" s="30"/>
       <c r="BW33" s="30"/>
       <c r="BX33" s="30"/>
       <c r="BY33" s="30"/>
@@ -4995,7 +4955,7 @@
       <c r="CV33" s="30"/>
       <c r="CW33" s="30"/>
       <c r="CX33" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY33" s="29" t="str">
@@ -5007,33 +4967,30 @@
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="33" t="str">
+        <f>IF(COUNTIF(D34:H34,"F")&gt;1,"F",IF(COUNTIF(D34:H34,"F")=1,"D-",IF(COUNTIF(D34:H34,"D")&gt;2,"D",IF(COUNTIF(D34:H34,"D")=2,"D+",IF(COUNTIF(D34:H34,"D")=1,"C-",IF(COUNTIF(D34:H34,"C")&gt;2,"C",IF(COUNTIF(D34:H34,"C")=2,"C+",IF(COUNTIF(D34:H34,"C")=1,"B-",IF(COUNTIF(D34:H34,"B")&gt;2,"B",IF(COUNTIF(D34:H34,"B")=2,"B+",IF(COUNTIF(D34:H34,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D34" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D34" s="27" t="str">
+      <c r="E34" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E34" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F34" s="28" t="str">
+      <c r="G34" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G34" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H34" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H34" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I34" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
@@ -5060,15 +5017,15 @@
       <c r="AG34" s="26"/>
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="29">
-        <f>SUM('GRADE BOOK'!$J34:$AJ34)</f>
-        <v>0</v>
-      </c>
-      <c r="AL34" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ34" s="29">
+        <f>SUM('GRADE BOOK'!$I34:$AI34)</f>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="29" t="str">
+        <f>HLOOKUP(AJ34,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL34" s="30"/>
       <c r="AM34" s="30"/>
       <c r="AN34" s="30"/>
       <c r="AO34" s="30"/>
@@ -5095,33 +5052,33 @@
       <c r="BJ34" s="30"/>
       <c r="BK34" s="30"/>
       <c r="BL34" s="30"/>
-      <c r="BM34" s="30"/>
-      <c r="BN34" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO34" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP34" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ34" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM34" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN34" s="29" t="str">
+        <f>HLOOKUP(BM34,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO34" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="29" t="str">
+        <f>HLOOKUP(BO34,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ34" s="30"/>
       <c r="BR34" s="30"/>
       <c r="BS34" s="30"/>
-      <c r="BT34" s="30"/>
-      <c r="BU34" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV34" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT34" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU34" s="29" t="str">
+        <f>HLOOKUP(BT34,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV34" s="30"/>
       <c r="BW34" s="30"/>
       <c r="BX34" s="30"/>
       <c r="BY34" s="30"/>
@@ -5150,7 +5107,7 @@
       <c r="CV34" s="30"/>
       <c r="CW34" s="30"/>
       <c r="CX34" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY34" s="29" t="str">
@@ -5162,33 +5119,30 @@
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="33" t="str">
+        <f>IF(COUNTIF(D35:H35,"F")&gt;1,"F",IF(COUNTIF(D35:H35,"F")=1,"D-",IF(COUNTIF(D35:H35,"D")&gt;2,"D",IF(COUNTIF(D35:H35,"D")=2,"D+",IF(COUNTIF(D35:H35,"D")=1,"C-",IF(COUNTIF(D35:H35,"C")&gt;2,"C",IF(COUNTIF(D35:H35,"C")=2,"C+",IF(COUNTIF(D35:H35,"C")=1,"B-",IF(COUNTIF(D35:H35,"B")&gt;2,"B",IF(COUNTIF(D35:H35,"B")=2,"B+",IF(COUNTIF(D35:H35,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D35" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D35" s="27" t="str">
+      <c r="E35" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F35" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E35" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F35" s="28" t="str">
+      <c r="G35" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G35" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H35" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H35" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I35" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I35" s="26"/>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
@@ -5215,15 +5169,15 @@
       <c r="AG35" s="26"/>
       <c r="AH35" s="26"/>
       <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="29">
-        <f>SUM('GRADE BOOK'!$J35:$AJ35)</f>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ35" s="29">
+        <f>SUM('GRADE BOOK'!$I35:$AI35)</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="29" t="str">
+        <f>HLOOKUP(AJ35,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL35" s="30"/>
       <c r="AM35" s="30"/>
       <c r="AN35" s="30"/>
       <c r="AO35" s="30"/>
@@ -5250,33 +5204,33 @@
       <c r="BJ35" s="30"/>
       <c r="BK35" s="30"/>
       <c r="BL35" s="30"/>
-      <c r="BM35" s="30"/>
-      <c r="BN35" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO35" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP35" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ35" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM35" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN35" s="29" t="str">
+        <f>HLOOKUP(BM35,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO35" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP35" s="29" t="str">
+        <f>HLOOKUP(BO35,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ35" s="30"/>
       <c r="BR35" s="30"/>
       <c r="BS35" s="30"/>
-      <c r="BT35" s="30"/>
-      <c r="BU35" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV35" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT35" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU35" s="29" t="str">
+        <f>HLOOKUP(BT35,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV35" s="30"/>
       <c r="BW35" s="30"/>
       <c r="BX35" s="30"/>
       <c r="BY35" s="30"/>
@@ -5305,7 +5259,7 @@
       <c r="CV35" s="30"/>
       <c r="CW35" s="30"/>
       <c r="CX35" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY35" s="29" t="str">
@@ -5317,33 +5271,30 @@
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="33" t="str">
+        <f>IF(COUNTIF(D36:H36,"F")&gt;1,"F",IF(COUNTIF(D36:H36,"F")=1,"D-",IF(COUNTIF(D36:H36,"D")&gt;2,"D",IF(COUNTIF(D36:H36,"D")=2,"D+",IF(COUNTIF(D36:H36,"D")=1,"C-",IF(COUNTIF(D36:H36,"C")&gt;2,"C",IF(COUNTIF(D36:H36,"C")=2,"C+",IF(COUNTIF(D36:H36,"C")=1,"B-",IF(COUNTIF(D36:H36,"B")&gt;2,"B",IF(COUNTIF(D36:H36,"B")=2,"B+",IF(COUNTIF(D36:H36,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D36" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D36" s="27" t="str">
+      <c r="E36" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F36" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E36" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F36" s="28" t="str">
+      <c r="G36" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G36" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H36" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H36" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I36" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I36" s="26"/>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
@@ -5370,15 +5321,15 @@
       <c r="AG36" s="26"/>
       <c r="AH36" s="26"/>
       <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="29">
-        <f>SUM('GRADE BOOK'!$J36:$AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ36" s="29">
+        <f>SUM('GRADE BOOK'!$I36:$AI36)</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="29" t="str">
+        <f>HLOOKUP(AJ36,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL36" s="30"/>
       <c r="AM36" s="30"/>
       <c r="AN36" s="30"/>
       <c r="AO36" s="30"/>
@@ -5405,33 +5356,33 @@
       <c r="BJ36" s="30"/>
       <c r="BK36" s="30"/>
       <c r="BL36" s="30"/>
-      <c r="BM36" s="30"/>
-      <c r="BN36" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO36" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP36" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ36" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM36" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN36" s="29" t="str">
+        <f>HLOOKUP(BM36,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO36" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP36" s="29" t="str">
+        <f>HLOOKUP(BO36,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ36" s="30"/>
       <c r="BR36" s="30"/>
       <c r="BS36" s="30"/>
-      <c r="BT36" s="30"/>
-      <c r="BU36" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV36" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT36" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU36" s="29" t="str">
+        <f>HLOOKUP(BT36,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV36" s="30"/>
       <c r="BW36" s="30"/>
       <c r="BX36" s="30"/>
       <c r="BY36" s="30"/>
@@ -5460,7 +5411,7 @@
       <c r="CV36" s="30"/>
       <c r="CW36" s="30"/>
       <c r="CX36" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY36" s="29" t="str">
@@ -5472,33 +5423,30 @@
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="33" t="str">
+        <f>IF(COUNTIF(D37:H37,"F")&gt;1,"F",IF(COUNTIF(D37:H37,"F")=1,"D-",IF(COUNTIF(D37:H37,"D")&gt;2,"D",IF(COUNTIF(D37:H37,"D")=2,"D+",IF(COUNTIF(D37:H37,"D")=1,"C-",IF(COUNTIF(D37:H37,"C")&gt;2,"C",IF(COUNTIF(D37:H37,"C")=2,"C+",IF(COUNTIF(D37:H37,"C")=1,"B-",IF(COUNTIF(D37:H37,"B")&gt;2,"B",IF(COUNTIF(D37:H37,"B")=2,"B+",IF(COUNTIF(D37:H37,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D37" s="27" t="str">
+      <c r="E37" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F37" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E37" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F37" s="28" t="str">
+      <c r="G37" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G37" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H37" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H37" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I37" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
@@ -5525,15 +5473,15 @@
       <c r="AG37" s="26"/>
       <c r="AH37" s="26"/>
       <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="29">
-        <f>SUM('GRADE BOOK'!$J37:$AJ37)</f>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ37" s="29">
+        <f>SUM('GRADE BOOK'!$I37:$AI37)</f>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="29" t="str">
+        <f>HLOOKUP(AJ37,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL37" s="30"/>
       <c r="AM37" s="30"/>
       <c r="AN37" s="30"/>
       <c r="AO37" s="30"/>
@@ -5560,33 +5508,33 @@
       <c r="BJ37" s="30"/>
       <c r="BK37" s="30"/>
       <c r="BL37" s="30"/>
-      <c r="BM37" s="30"/>
-      <c r="BN37" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO37" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP37" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ37" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM37" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN37" s="29" t="str">
+        <f>HLOOKUP(BM37,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO37" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="29" t="str">
+        <f>HLOOKUP(BO37,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ37" s="30"/>
       <c r="BR37" s="30"/>
       <c r="BS37" s="30"/>
-      <c r="BT37" s="30"/>
-      <c r="BU37" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV37" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT37" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU37" s="29" t="str">
+        <f>HLOOKUP(BT37,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV37" s="30"/>
       <c r="BW37" s="30"/>
       <c r="BX37" s="30"/>
       <c r="BY37" s="30"/>
@@ -5615,7 +5563,7 @@
       <c r="CV37" s="30"/>
       <c r="CW37" s="30"/>
       <c r="CX37" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY37" s="29" t="str">
@@ -5627,33 +5575,30 @@
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="33" t="str">
+        <f>IF(COUNTIF(D38:H38,"F")&gt;1,"F",IF(COUNTIF(D38:H38,"F")=1,"D-",IF(COUNTIF(D38:H38,"D")&gt;2,"D",IF(COUNTIF(D38:H38,"D")=2,"D+",IF(COUNTIF(D38:H38,"D")=1,"C-",IF(COUNTIF(D38:H38,"C")&gt;2,"C",IF(COUNTIF(D38:H38,"C")=2,"C+",IF(COUNTIF(D38:H38,"C")=1,"B-",IF(COUNTIF(D38:H38,"B")&gt;2,"B",IF(COUNTIF(D38:H38,"B")=2,"B+",IF(COUNTIF(D38:H38,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D38" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D38" s="27" t="str">
+      <c r="E38" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F38" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E38" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F38" s="28" t="str">
+      <c r="G38" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G38" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H38" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H38" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I38" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
@@ -5680,15 +5625,15 @@
       <c r="AG38" s="26"/>
       <c r="AH38" s="26"/>
       <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="29">
-        <f>SUM('GRADE BOOK'!$J38:$AJ38)</f>
-        <v>0</v>
-      </c>
-      <c r="AL38" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ38" s="29">
+        <f>SUM('GRADE BOOK'!$I38:$AI38)</f>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="29" t="str">
+        <f>HLOOKUP(AJ38,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL38" s="30"/>
       <c r="AM38" s="30"/>
       <c r="AN38" s="30"/>
       <c r="AO38" s="30"/>
@@ -5715,33 +5660,33 @@
       <c r="BJ38" s="30"/>
       <c r="BK38" s="30"/>
       <c r="BL38" s="30"/>
-      <c r="BM38" s="30"/>
-      <c r="BN38" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO38" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP38" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ38" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM38" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN38" s="29" t="str">
+        <f>HLOOKUP(BM38,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO38" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP38" s="29" t="str">
+        <f>HLOOKUP(BO38,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ38" s="30"/>
       <c r="BR38" s="30"/>
       <c r="BS38" s="30"/>
-      <c r="BT38" s="30"/>
-      <c r="BU38" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV38" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT38" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU38" s="29" t="str">
+        <f>HLOOKUP(BT38,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV38" s="30"/>
       <c r="BW38" s="30"/>
       <c r="BX38" s="30"/>
       <c r="BY38" s="30"/>
@@ -5770,7 +5715,7 @@
       <c r="CV38" s="30"/>
       <c r="CW38" s="30"/>
       <c r="CX38" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY38" s="29" t="str">
@@ -5782,33 +5727,30 @@
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="33" t="str">
+        <f>IF(COUNTIF(D39:H39,"F")&gt;1,"F",IF(COUNTIF(D39:H39,"F")=1,"D-",IF(COUNTIF(D39:H39,"D")&gt;2,"D",IF(COUNTIF(D39:H39,"D")=2,"D+",IF(COUNTIF(D39:H39,"D")=1,"C-",IF(COUNTIF(D39:H39,"C")&gt;2,"C",IF(COUNTIF(D39:H39,"C")=2,"C+",IF(COUNTIF(D39:H39,"C")=1,"B-",IF(COUNTIF(D39:H39,"B")&gt;2,"B",IF(COUNTIF(D39:H39,"B")=2,"B+",IF(COUNTIF(D39:H39,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D39" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D39" s="27" t="str">
+      <c r="E39" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F39" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E39" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F39" s="28" t="str">
+      <c r="G39" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G39" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H39" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H39" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I39" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I39" s="26"/>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
@@ -5835,15 +5777,15 @@
       <c r="AG39" s="26"/>
       <c r="AH39" s="26"/>
       <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="29">
-        <f>SUM('GRADE BOOK'!$J39:$AJ39)</f>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ39" s="29">
+        <f>SUM('GRADE BOOK'!$I39:$AI39)</f>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="29" t="str">
+        <f>HLOOKUP(AJ39,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL39" s="30"/>
       <c r="AM39" s="30"/>
       <c r="AN39" s="30"/>
       <c r="AO39" s="30"/>
@@ -5870,33 +5812,33 @@
       <c r="BJ39" s="30"/>
       <c r="BK39" s="30"/>
       <c r="BL39" s="30"/>
-      <c r="BM39" s="30"/>
-      <c r="BN39" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO39" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP39" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM39" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN39" s="29" t="str">
+        <f>HLOOKUP(BM39,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO39" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP39" s="29" t="str">
+        <f>HLOOKUP(BO39,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ39" s="30"/>
       <c r="BR39" s="30"/>
       <c r="BS39" s="30"/>
-      <c r="BT39" s="30"/>
-      <c r="BU39" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV39" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT39" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU39" s="29" t="str">
+        <f>HLOOKUP(BT39,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV39" s="30"/>
       <c r="BW39" s="30"/>
       <c r="BX39" s="30"/>
       <c r="BY39" s="30"/>
@@ -5925,7 +5867,7 @@
       <c r="CV39" s="30"/>
       <c r="CW39" s="30"/>
       <c r="CX39" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY39" s="29" t="str">
@@ -5937,33 +5879,30 @@
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="33" t="str">
+        <f>IF(COUNTIF(D40:H40,"F")&gt;1,"F",IF(COUNTIF(D40:H40,"F")=1,"D-",IF(COUNTIF(D40:H40,"D")&gt;2,"D",IF(COUNTIF(D40:H40,"D")=2,"D+",IF(COUNTIF(D40:H40,"D")=1,"C-",IF(COUNTIF(D40:H40,"C")&gt;2,"C",IF(COUNTIF(D40:H40,"C")=2,"C+",IF(COUNTIF(D40:H40,"C")=1,"B-",IF(COUNTIF(D40:H40,"B")&gt;2,"B",IF(COUNTIF(D40:H40,"B")=2,"B+",IF(COUNTIF(D40:H40,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D40" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D40" s="27" t="str">
+      <c r="E40" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F40" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E40" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F40" s="28" t="str">
+      <c r="G40" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G40" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H40" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H40" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I40" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
@@ -5990,15 +5929,15 @@
       <c r="AG40" s="26"/>
       <c r="AH40" s="26"/>
       <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="29">
-        <f>SUM('GRADE BOOK'!$J40:$AJ40)</f>
-        <v>0</v>
-      </c>
-      <c r="AL40" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ40" s="29">
+        <f>SUM('GRADE BOOK'!$I40:$AI40)</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="29" t="str">
+        <f>HLOOKUP(AJ40,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL40" s="30"/>
       <c r="AM40" s="30"/>
       <c r="AN40" s="30"/>
       <c r="AO40" s="30"/>
@@ -6025,33 +5964,33 @@
       <c r="BJ40" s="30"/>
       <c r="BK40" s="30"/>
       <c r="BL40" s="30"/>
-      <c r="BM40" s="30"/>
-      <c r="BN40" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO40" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP40" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ40" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM40" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN40" s="29" t="str">
+        <f>HLOOKUP(BM40,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO40" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="29" t="str">
+        <f>HLOOKUP(BO40,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ40" s="30"/>
       <c r="BR40" s="30"/>
       <c r="BS40" s="30"/>
-      <c r="BT40" s="30"/>
-      <c r="BU40" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV40" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT40" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU40" s="29" t="str">
+        <f>HLOOKUP(BT40,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV40" s="30"/>
       <c r="BW40" s="30"/>
       <c r="BX40" s="30"/>
       <c r="BY40" s="30"/>
@@ -6080,7 +6019,7 @@
       <c r="CV40" s="30"/>
       <c r="CW40" s="30"/>
       <c r="CX40" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY40" s="29" t="str">
@@ -6092,33 +6031,30 @@
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="33" t="str">
+        <f>IF(COUNTIF(D41:H41,"F")&gt;1,"F",IF(COUNTIF(D41:H41,"F")=1,"D-",IF(COUNTIF(D41:H41,"D")&gt;2,"D",IF(COUNTIF(D41:H41,"D")=2,"D+",IF(COUNTIF(D41:H41,"D")=1,"C-",IF(COUNTIF(D41:H41,"C")&gt;2,"C",IF(COUNTIF(D41:H41,"C")=2,"C+",IF(COUNTIF(D41:H41,"C")=1,"B-",IF(COUNTIF(D41:H41,"B")&gt;2,"B",IF(COUNTIF(D41:H41,"B")=2,"B+",IF(COUNTIF(D41:H41,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D41" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D41" s="27" t="str">
+      <c r="E41" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F41" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E41" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F41" s="28" t="str">
+      <c r="G41" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G41" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H41" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H41" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I41" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I41" s="26"/>
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
@@ -6145,15 +6081,15 @@
       <c r="AG41" s="26"/>
       <c r="AH41" s="26"/>
       <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="29">
-        <f>SUM('GRADE BOOK'!$J41:$AJ41)</f>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ41" s="29">
+        <f>SUM('GRADE BOOK'!$I41:$AI41)</f>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="29" t="str">
+        <f>HLOOKUP(AJ41,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL41" s="30"/>
       <c r="AM41" s="30"/>
       <c r="AN41" s="30"/>
       <c r="AO41" s="30"/>
@@ -6180,33 +6116,33 @@
       <c r="BJ41" s="30"/>
       <c r="BK41" s="30"/>
       <c r="BL41" s="30"/>
-      <c r="BM41" s="30"/>
-      <c r="BN41" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO41" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP41" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ41" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM41" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN41" s="29" t="str">
+        <f>HLOOKUP(BM41,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO41" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP41" s="29" t="str">
+        <f>HLOOKUP(BO41,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ41" s="30"/>
       <c r="BR41" s="30"/>
       <c r="BS41" s="30"/>
-      <c r="BT41" s="30"/>
-      <c r="BU41" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV41" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT41" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU41" s="29" t="str">
+        <f>HLOOKUP(BT41,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV41" s="30"/>
       <c r="BW41" s="30"/>
       <c r="BX41" s="30"/>
       <c r="BY41" s="30"/>
@@ -6235,7 +6171,7 @@
       <c r="CV41" s="30"/>
       <c r="CW41" s="30"/>
       <c r="CX41" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY41" s="29" t="str">
@@ -6247,33 +6183,30 @@
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="33" t="str">
+        <f>IF(COUNTIF(D42:H42,"F")&gt;1,"F",IF(COUNTIF(D42:H42,"F")=1,"D-",IF(COUNTIF(D42:H42,"D")&gt;2,"D",IF(COUNTIF(D42:H42,"D")=2,"D+",IF(COUNTIF(D42:H42,"D")=1,"C-",IF(COUNTIF(D42:H42,"C")&gt;2,"C",IF(COUNTIF(D42:H42,"C")=2,"C+",IF(COUNTIF(D42:H42,"C")=1,"B-",IF(COUNTIF(D42:H42,"B")&gt;2,"B",IF(COUNTIF(D42:H42,"B")=2,"B+",IF(COUNTIF(D42:H42,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D42" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D42" s="27" t="str">
+      <c r="E42" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F42" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E42" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F42" s="28" t="str">
+      <c r="G42" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G42" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H42" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H42" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I42" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
@@ -6300,15 +6233,15 @@
       <c r="AG42" s="26"/>
       <c r="AH42" s="26"/>
       <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="29">
-        <f>SUM('GRADE BOOK'!$J42:$AJ42)</f>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ42" s="29">
+        <f>SUM('GRADE BOOK'!$I42:$AI42)</f>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="29" t="str">
+        <f>HLOOKUP(AJ42,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL42" s="30"/>
       <c r="AM42" s="30"/>
       <c r="AN42" s="30"/>
       <c r="AO42" s="30"/>
@@ -6335,33 +6268,33 @@
       <c r="BJ42" s="30"/>
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
-      <c r="BM42" s="30"/>
-      <c r="BN42" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO42" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP42" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ42" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM42" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN42" s="29" t="str">
+        <f>HLOOKUP(BM42,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO42" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP42" s="29" t="str">
+        <f>HLOOKUP(BO42,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ42" s="30"/>
       <c r="BR42" s="30"/>
       <c r="BS42" s="30"/>
-      <c r="BT42" s="30"/>
-      <c r="BU42" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV42" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT42" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU42" s="29" t="str">
+        <f>HLOOKUP(BT42,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV42" s="30"/>
       <c r="BW42" s="30"/>
       <c r="BX42" s="30"/>
       <c r="BY42" s="30"/>
@@ -6390,7 +6323,7 @@
       <c r="CV42" s="30"/>
       <c r="CW42" s="30"/>
       <c r="CX42" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY42" s="29" t="str">
@@ -6402,33 +6335,30 @@
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="33" t="str">
+        <f>IF(COUNTIF(D43:H43,"F")&gt;1,"F",IF(COUNTIF(D43:H43,"F")=1,"D-",IF(COUNTIF(D43:H43,"D")&gt;2,"D",IF(COUNTIF(D43:H43,"D")=2,"D+",IF(COUNTIF(D43:H43,"D")=1,"C-",IF(COUNTIF(D43:H43,"C")&gt;2,"C",IF(COUNTIF(D43:H43,"C")=2,"C+",IF(COUNTIF(D43:H43,"C")=1,"B-",IF(COUNTIF(D43:H43,"B")&gt;2,"B",IF(COUNTIF(D43:H43,"B")=2,"B+",IF(COUNTIF(D43:H43,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D43" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D43" s="27" t="str">
+      <c r="E43" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F43" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E43" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F43" s="28" t="str">
+      <c r="G43" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G43" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H43" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H43" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I43" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
@@ -6455,15 +6385,15 @@
       <c r="AG43" s="26"/>
       <c r="AH43" s="26"/>
       <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="29">
-        <f>SUM('GRADE BOOK'!$J43:$AJ43)</f>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ43" s="29">
+        <f>SUM('GRADE BOOK'!$I43:$AI43)</f>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="29" t="str">
+        <f>HLOOKUP(AJ43,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL43" s="30"/>
       <c r="AM43" s="30"/>
       <c r="AN43" s="30"/>
       <c r="AO43" s="30"/>
@@ -6490,33 +6420,33 @@
       <c r="BJ43" s="30"/>
       <c r="BK43" s="30"/>
       <c r="BL43" s="30"/>
-      <c r="BM43" s="30"/>
-      <c r="BN43" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO43" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP43" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ43" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM43" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN43" s="29" t="str">
+        <f>HLOOKUP(BM43,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO43" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP43" s="29" t="str">
+        <f>HLOOKUP(BO43,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ43" s="30"/>
       <c r="BR43" s="30"/>
       <c r="BS43" s="30"/>
-      <c r="BT43" s="30"/>
-      <c r="BU43" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV43" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT43" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU43" s="29" t="str">
+        <f>HLOOKUP(BT43,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV43" s="30"/>
       <c r="BW43" s="30"/>
       <c r="BX43" s="30"/>
       <c r="BY43" s="30"/>
@@ -6545,7 +6475,7 @@
       <c r="CV43" s="30"/>
       <c r="CW43" s="30"/>
       <c r="CX43" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY43" s="29" t="str">
@@ -6557,33 +6487,30 @@
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="33" t="str">
+        <f>IF(COUNTIF(D44:H44,"F")&gt;1,"F",IF(COUNTIF(D44:H44,"F")=1,"D-",IF(COUNTIF(D44:H44,"D")&gt;2,"D",IF(COUNTIF(D44:H44,"D")=2,"D+",IF(COUNTIF(D44:H44,"D")=1,"C-",IF(COUNTIF(D44:H44,"C")&gt;2,"C",IF(COUNTIF(D44:H44,"C")=2,"C+",IF(COUNTIF(D44:H44,"C")=1,"B-",IF(COUNTIF(D44:H44,"B")&gt;2,"B",IF(COUNTIF(D44:H44,"B")=2,"B+",IF(COUNTIF(D44:H44,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D44" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D44" s="27" t="str">
+      <c r="E44" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F44" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E44" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F44" s="28" t="str">
+      <c r="G44" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G44" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H44" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H44" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I44" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
@@ -6610,15 +6537,15 @@
       <c r="AG44" s="26"/>
       <c r="AH44" s="26"/>
       <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="29">
-        <f>SUM('GRADE BOOK'!$J44:$AJ44)</f>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ44" s="29">
+        <f>SUM('GRADE BOOK'!$I44:$AI44)</f>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="29" t="str">
+        <f>HLOOKUP(AJ44,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL44" s="30"/>
       <c r="AM44" s="30"/>
       <c r="AN44" s="30"/>
       <c r="AO44" s="30"/>
@@ -6645,33 +6572,33 @@
       <c r="BJ44" s="30"/>
       <c r="BK44" s="30"/>
       <c r="BL44" s="30"/>
-      <c r="BM44" s="30"/>
-      <c r="BN44" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO44" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP44" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ44" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM44" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN44" s="29" t="str">
+        <f>HLOOKUP(BM44,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO44" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP44" s="29" t="str">
+        <f>HLOOKUP(BO44,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ44" s="30"/>
       <c r="BR44" s="30"/>
       <c r="BS44" s="30"/>
-      <c r="BT44" s="30"/>
-      <c r="BU44" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV44" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT44" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU44" s="29" t="str">
+        <f>HLOOKUP(BT44,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV44" s="30"/>
       <c r="BW44" s="30"/>
       <c r="BX44" s="30"/>
       <c r="BY44" s="30"/>
@@ -6700,7 +6627,7 @@
       <c r="CV44" s="30"/>
       <c r="CW44" s="30"/>
       <c r="CX44" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY44" s="29" t="str">
@@ -6712,33 +6639,30 @@
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="33" t="str">
+        <f>IF(COUNTIF(D45:H45,"F")&gt;1,"F",IF(COUNTIF(D45:H45,"F")=1,"D-",IF(COUNTIF(D45:H45,"D")&gt;2,"D",IF(COUNTIF(D45:H45,"D")=2,"D+",IF(COUNTIF(D45:H45,"D")=1,"C-",IF(COUNTIF(D45:H45,"C")&gt;2,"C",IF(COUNTIF(D45:H45,"C")=2,"C+",IF(COUNTIF(D45:H45,"C")=1,"B-",IF(COUNTIF(D45:H45,"B")&gt;2,"B",IF(COUNTIF(D45:H45,"B")=2,"B+",IF(COUNTIF(D45:H45,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D45" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D45" s="27" t="str">
+      <c r="E45" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F45" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E45" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F45" s="28" t="str">
+      <c r="G45" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G45" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H45" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H45" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I45" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
@@ -6765,15 +6689,15 @@
       <c r="AG45" s="26"/>
       <c r="AH45" s="26"/>
       <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="29">
-        <f>SUM('GRADE BOOK'!$J45:$AJ45)</f>
-        <v>0</v>
-      </c>
-      <c r="AL45" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ45" s="29">
+        <f>SUM('GRADE BOOK'!$I45:$AI45)</f>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="29" t="str">
+        <f>HLOOKUP(AJ45,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL45" s="30"/>
       <c r="AM45" s="30"/>
       <c r="AN45" s="30"/>
       <c r="AO45" s="30"/>
@@ -6800,33 +6724,33 @@
       <c r="BJ45" s="30"/>
       <c r="BK45" s="30"/>
       <c r="BL45" s="30"/>
-      <c r="BM45" s="30"/>
-      <c r="BN45" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO45" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP45" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ45" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM45" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN45" s="29" t="str">
+        <f>HLOOKUP(BM45,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO45" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP45" s="29" t="str">
+        <f>HLOOKUP(BO45,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ45" s="30"/>
       <c r="BR45" s="30"/>
       <c r="BS45" s="30"/>
-      <c r="BT45" s="30"/>
-      <c r="BU45" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV45" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT45" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU45" s="29" t="str">
+        <f>HLOOKUP(BT45,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV45" s="30"/>
       <c r="BW45" s="30"/>
       <c r="BX45" s="30"/>
       <c r="BY45" s="30"/>
@@ -6855,7 +6779,7 @@
       <c r="CV45" s="30"/>
       <c r="CW45" s="30"/>
       <c r="CX45" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY45" s="29" t="str">
@@ -6867,33 +6791,30 @@
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="33" t="str">
+        <f>IF(COUNTIF(D46:H46,"F")&gt;1,"F",IF(COUNTIF(D46:H46,"F")=1,"D-",IF(COUNTIF(D46:H46,"D")&gt;2,"D",IF(COUNTIF(D46:H46,"D")=2,"D+",IF(COUNTIF(D46:H46,"D")=1,"C-",IF(COUNTIF(D46:H46,"C")&gt;2,"C",IF(COUNTIF(D46:H46,"C")=2,"C+",IF(COUNTIF(D46:H46,"C")=1,"B-",IF(COUNTIF(D46:H46,"B")&gt;2,"B",IF(COUNTIF(D46:H46,"B")=2,"B+",IF(COUNTIF(D46:H46,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D46" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D46" s="27" t="str">
+      <c r="E46" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F46" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E46" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F46" s="28" t="str">
+      <c r="G46" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G46" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H46" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H46" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I46" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I46" s="26"/>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
@@ -6920,15 +6841,15 @@
       <c r="AG46" s="26"/>
       <c r="AH46" s="26"/>
       <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="29">
-        <f>SUM('GRADE BOOK'!$J46:$AJ46)</f>
-        <v>0</v>
-      </c>
-      <c r="AL46" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ46" s="29">
+        <f>SUM('GRADE BOOK'!$I46:$AI46)</f>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="29" t="str">
+        <f>HLOOKUP(AJ46,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL46" s="30"/>
       <c r="AM46" s="30"/>
       <c r="AN46" s="30"/>
       <c r="AO46" s="30"/>
@@ -6955,33 +6876,33 @@
       <c r="BJ46" s="30"/>
       <c r="BK46" s="30"/>
       <c r="BL46" s="30"/>
-      <c r="BM46" s="30"/>
-      <c r="BN46" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO46" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP46" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ46" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM46" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN46" s="29" t="str">
+        <f>HLOOKUP(BM46,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO46" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP46" s="29" t="str">
+        <f>HLOOKUP(BO46,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ46" s="30"/>
       <c r="BR46" s="30"/>
       <c r="BS46" s="30"/>
-      <c r="BT46" s="30"/>
-      <c r="BU46" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV46" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT46" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU46" s="29" t="str">
+        <f>HLOOKUP(BT46,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV46" s="30"/>
       <c r="BW46" s="30"/>
       <c r="BX46" s="30"/>
       <c r="BY46" s="30"/>
@@ -7010,7 +6931,7 @@
       <c r="CV46" s="30"/>
       <c r="CW46" s="30"/>
       <c r="CX46" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY46" s="29" t="str">
@@ -7022,33 +6943,30 @@
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="33" t="str">
+        <f>IF(COUNTIF(D47:H47,"F")&gt;1,"F",IF(COUNTIF(D47:H47,"F")=1,"D-",IF(COUNTIF(D47:H47,"D")&gt;2,"D",IF(COUNTIF(D47:H47,"D")=2,"D+",IF(COUNTIF(D47:H47,"D")=1,"C-",IF(COUNTIF(D47:H47,"C")&gt;2,"C",IF(COUNTIF(D47:H47,"C")=2,"C+",IF(COUNTIF(D47:H47,"C")=1,"B-",IF(COUNTIF(D47:H47,"B")&gt;2,"B",IF(COUNTIF(D47:H47,"B")=2,"B+",IF(COUNTIF(D47:H47,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D47" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D47" s="27" t="str">
+      <c r="E47" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F47" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E47" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F47" s="28" t="str">
+      <c r="G47" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G47" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H47" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H47" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I47" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I47" s="26"/>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
@@ -7075,15 +6993,15 @@
       <c r="AG47" s="26"/>
       <c r="AH47" s="26"/>
       <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="29">
-        <f>SUM('GRADE BOOK'!$J47:$AJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="AL47" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ47" s="29">
+        <f>SUM('GRADE BOOK'!$I47:$AI47)</f>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="29" t="str">
+        <f>HLOOKUP(AJ47,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL47" s="30"/>
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
       <c r="AO47" s="30"/>
@@ -7110,33 +7028,33 @@
       <c r="BJ47" s="30"/>
       <c r="BK47" s="30"/>
       <c r="BL47" s="30"/>
-      <c r="BM47" s="30"/>
-      <c r="BN47" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO47" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP47" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ47" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM47" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN47" s="29" t="str">
+        <f>HLOOKUP(BM47,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO47" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP47" s="29" t="str">
+        <f>HLOOKUP(BO47,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ47" s="30"/>
       <c r="BR47" s="30"/>
       <c r="BS47" s="30"/>
-      <c r="BT47" s="30"/>
-      <c r="BU47" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV47" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT47" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU47" s="29" t="str">
+        <f>HLOOKUP(BT47,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV47" s="30"/>
       <c r="BW47" s="30"/>
       <c r="BX47" s="30"/>
       <c r="BY47" s="30"/>
@@ -7165,7 +7083,7 @@
       <c r="CV47" s="30"/>
       <c r="CW47" s="30"/>
       <c r="CX47" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY47" s="29" t="str">
@@ -7177,33 +7095,30 @@
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="33" t="str">
+        <f>IF(COUNTIF(D48:H48,"F")&gt;1,"F",IF(COUNTIF(D48:H48,"F")=1,"D-",IF(COUNTIF(D48:H48,"D")&gt;2,"D",IF(COUNTIF(D48:H48,"D")=2,"D+",IF(COUNTIF(D48:H48,"D")=1,"C-",IF(COUNTIF(D48:H48,"C")&gt;2,"C",IF(COUNTIF(D48:H48,"C")=2,"C+",IF(COUNTIF(D48:H48,"C")=1,"B-",IF(COUNTIF(D48:H48,"B")&gt;2,"B",IF(COUNTIF(D48:H48,"B")=2,"B+",IF(COUNTIF(D48:H48,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D48" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D48" s="27" t="str">
+      <c r="E48" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F48" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E48" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F48" s="28" t="str">
+      <c r="G48" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G48" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H48" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H48" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I48" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I48" s="26"/>
       <c r="J48" s="26"/>
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
@@ -7230,15 +7145,15 @@
       <c r="AG48" s="26"/>
       <c r="AH48" s="26"/>
       <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="29">
-        <f>SUM('GRADE BOOK'!$J48:$AJ48)</f>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ48" s="29">
+        <f>SUM('GRADE BOOK'!$I48:$AI48)</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="29" t="str">
+        <f>HLOOKUP(AJ48,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL48" s="30"/>
       <c r="AM48" s="30"/>
       <c r="AN48" s="30"/>
       <c r="AO48" s="30"/>
@@ -7265,33 +7180,33 @@
       <c r="BJ48" s="30"/>
       <c r="BK48" s="30"/>
       <c r="BL48" s="30"/>
-      <c r="BM48" s="30"/>
-      <c r="BN48" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO48" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP48" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ48" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM48" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN48" s="29" t="str">
+        <f>HLOOKUP(BM48,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO48" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP48" s="29" t="str">
+        <f>HLOOKUP(BO48,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ48" s="30"/>
       <c r="BR48" s="30"/>
       <c r="BS48" s="30"/>
-      <c r="BT48" s="30"/>
-      <c r="BU48" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV48" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT48" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU48" s="29" t="str">
+        <f>HLOOKUP(BT48,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV48" s="30"/>
       <c r="BW48" s="30"/>
       <c r="BX48" s="30"/>
       <c r="BY48" s="30"/>
@@ -7320,7 +7235,7 @@
       <c r="CV48" s="30"/>
       <c r="CW48" s="30"/>
       <c r="CX48" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY48" s="29" t="str">
@@ -7332,33 +7247,30 @@
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="33" t="str">
+        <f>IF(COUNTIF(D49:H49,"F")&gt;1,"F",IF(COUNTIF(D49:H49,"F")=1,"D-",IF(COUNTIF(D49:H49,"D")&gt;2,"D",IF(COUNTIF(D49:H49,"D")=2,"D+",IF(COUNTIF(D49:H49,"D")=1,"C-",IF(COUNTIF(D49:H49,"C")&gt;2,"C",IF(COUNTIF(D49:H49,"C")=2,"C+",IF(COUNTIF(D49:H49,"C")=1,"B-",IF(COUNTIF(D49:H49,"B")&gt;2,"B",IF(COUNTIF(D49:H49,"B")=2,"B+",IF(COUNTIF(D49:H49,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D49" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D49" s="27" t="str">
+      <c r="E49" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F49" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E49" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F49" s="28" t="str">
+      <c r="G49" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G49" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H49" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H49" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I49" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I49" s="26"/>
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
@@ -7385,15 +7297,15 @@
       <c r="AG49" s="26"/>
       <c r="AH49" s="26"/>
       <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="29">
-        <f>SUM('GRADE BOOK'!$J49:$AJ49)</f>
-        <v>0</v>
-      </c>
-      <c r="AL49" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ49" s="29">
+        <f>SUM('GRADE BOOK'!$I49:$AI49)</f>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="29" t="str">
+        <f>HLOOKUP(AJ49,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
       <c r="AN49" s="30"/>
       <c r="AO49" s="30"/>
@@ -7420,33 +7332,33 @@
       <c r="BJ49" s="30"/>
       <c r="BK49" s="30"/>
       <c r="BL49" s="30"/>
-      <c r="BM49" s="30"/>
-      <c r="BN49" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO49" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP49" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ49" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM49" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN49" s="29" t="str">
+        <f>HLOOKUP(BM49,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO49" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP49" s="29" t="str">
+        <f>HLOOKUP(BO49,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ49" s="30"/>
       <c r="BR49" s="30"/>
       <c r="BS49" s="30"/>
-      <c r="BT49" s="30"/>
-      <c r="BU49" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV49" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT49" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU49" s="29" t="str">
+        <f>HLOOKUP(BT49,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV49" s="30"/>
       <c r="BW49" s="30"/>
       <c r="BX49" s="30"/>
       <c r="BY49" s="30"/>
@@ -7475,7 +7387,7 @@
       <c r="CV49" s="30"/>
       <c r="CW49" s="30"/>
       <c r="CX49" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY49" s="29" t="str">
@@ -7487,33 +7399,30 @@
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="33" t="str">
+        <f>IF(COUNTIF(D50:H50,"F")&gt;1,"F",IF(COUNTIF(D50:H50,"F")=1,"D-",IF(COUNTIF(D50:H50,"D")&gt;2,"D",IF(COUNTIF(D50:H50,"D")=2,"D+",IF(COUNTIF(D50:H50,"D")=1,"C-",IF(COUNTIF(D50:H50,"C")&gt;2,"C",IF(COUNTIF(D50:H50,"C")=2,"C+",IF(COUNTIF(D50:H50,"C")=1,"B-",IF(COUNTIF(D50:H50,"B")&gt;2,"B",IF(COUNTIF(D50:H50,"B")=2,"B+",IF(COUNTIF(D50:H50,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D50" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D50" s="27" t="str">
+      <c r="E50" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F50" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E50" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F50" s="28" t="str">
+      <c r="G50" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G50" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H50" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H50" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I50" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
@@ -7540,15 +7449,15 @@
       <c r="AG50" s="26"/>
       <c r="AH50" s="26"/>
       <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="29">
-        <f>SUM('GRADE BOOK'!$J50:$AJ50)</f>
-        <v>0</v>
-      </c>
-      <c r="AL50" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ50" s="29">
+        <f>SUM('GRADE BOOK'!$I50:$AI50)</f>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="29" t="str">
+        <f>HLOOKUP(AJ50,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
       <c r="AN50" s="30"/>
       <c r="AO50" s="30"/>
@@ -7575,33 +7484,33 @@
       <c r="BJ50" s="30"/>
       <c r="BK50" s="30"/>
       <c r="BL50" s="30"/>
-      <c r="BM50" s="30"/>
-      <c r="BN50" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO50" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP50" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ50" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM50" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN50" s="29" t="str">
+        <f>HLOOKUP(BM50,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO50" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP50" s="29" t="str">
+        <f>HLOOKUP(BO50,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ50" s="30"/>
       <c r="BR50" s="30"/>
       <c r="BS50" s="30"/>
-      <c r="BT50" s="30"/>
-      <c r="BU50" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV50" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT50" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU50" s="29" t="str">
+        <f>HLOOKUP(BT50,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV50" s="30"/>
       <c r="BW50" s="30"/>
       <c r="BX50" s="30"/>
       <c r="BY50" s="30"/>
@@ -7630,7 +7539,7 @@
       <c r="CV50" s="30"/>
       <c r="CW50" s="30"/>
       <c r="CX50" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY50" s="29" t="str">
@@ -7642,33 +7551,30 @@
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="33" t="str">
+        <f>IF(COUNTIF(D51:H51,"F")&gt;1,"F",IF(COUNTIF(D51:H51,"F")=1,"D-",IF(COUNTIF(D51:H51,"D")&gt;2,"D",IF(COUNTIF(D51:H51,"D")=2,"D+",IF(COUNTIF(D51:H51,"D")=1,"C-",IF(COUNTIF(D51:H51,"C")&gt;2,"C",IF(COUNTIF(D51:H51,"C")=2,"C+",IF(COUNTIF(D51:H51,"C")=1,"B-",IF(COUNTIF(D51:H51,"B")&gt;2,"B",IF(COUNTIF(D51:H51,"B")=2,"B+",IF(COUNTIF(D51:H51,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D51" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D51" s="27" t="str">
+      <c r="E51" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F51" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E51" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F51" s="28" t="str">
+      <c r="G51" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G51" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H51" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H51" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I51" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
@@ -7695,15 +7601,15 @@
       <c r="AG51" s="26"/>
       <c r="AH51" s="26"/>
       <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="29">
-        <f>SUM('GRADE BOOK'!$J51:$AJ51)</f>
-        <v>0</v>
-      </c>
-      <c r="AL51" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ51" s="29">
+        <f>SUM('GRADE BOOK'!$I51:$AI51)</f>
+        <v>0</v>
+      </c>
+      <c r="AK51" s="29" t="str">
+        <f>HLOOKUP(AJ51,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL51" s="30"/>
       <c r="AM51" s="30"/>
       <c r="AN51" s="30"/>
       <c r="AO51" s="30"/>
@@ -7730,33 +7636,33 @@
       <c r="BJ51" s="30"/>
       <c r="BK51" s="30"/>
       <c r="BL51" s="30"/>
-      <c r="BM51" s="30"/>
-      <c r="BN51" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO51" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP51" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ51" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM51" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN51" s="29" t="str">
+        <f>HLOOKUP(BM51,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO51" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP51" s="29" t="str">
+        <f>HLOOKUP(BO51,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ51" s="30"/>
       <c r="BR51" s="30"/>
       <c r="BS51" s="30"/>
-      <c r="BT51" s="30"/>
-      <c r="BU51" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV51" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT51" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU51" s="29" t="str">
+        <f>HLOOKUP(BT51,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV51" s="30"/>
       <c r="BW51" s="30"/>
       <c r="BX51" s="30"/>
       <c r="BY51" s="30"/>
@@ -7785,7 +7691,7 @@
       <c r="CV51" s="30"/>
       <c r="CW51" s="30"/>
       <c r="CX51" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY51" s="29" t="str">
@@ -7797,33 +7703,30 @@
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="33" t="str">
+        <f>IF(COUNTIF(D52:H52,"F")&gt;1,"F",IF(COUNTIF(D52:H52,"F")=1,"D-",IF(COUNTIF(D52:H52,"D")&gt;2,"D",IF(COUNTIF(D52:H52,"D")=2,"D+",IF(COUNTIF(D52:H52,"D")=1,"C-",IF(COUNTIF(D52:H52,"C")&gt;2,"C",IF(COUNTIF(D52:H52,"C")=2,"C+",IF(COUNTIF(D52:H52,"C")=1,"B-",IF(COUNTIF(D52:H52,"B")&gt;2,"B",IF(COUNTIF(D52:H52,"B")=2,"B+",IF(COUNTIF(D52:H52,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D52" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D52" s="27" t="str">
+      <c r="E52" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F52" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E52" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F52" s="28" t="str">
+      <c r="G52" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G52" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H52" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H52" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I52" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
@@ -7850,15 +7753,15 @@
       <c r="AG52" s="26"/>
       <c r="AH52" s="26"/>
       <c r="AI52" s="26"/>
-      <c r="AJ52" s="26"/>
-      <c r="AK52" s="29">
-        <f>SUM('GRADE BOOK'!$J52:$AJ52)</f>
-        <v>0</v>
-      </c>
-      <c r="AL52" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ52" s="29">
+        <f>SUM('GRADE BOOK'!$I52:$AI52)</f>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="29" t="str">
+        <f>HLOOKUP(AJ52,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL52" s="30"/>
       <c r="AM52" s="30"/>
       <c r="AN52" s="30"/>
       <c r="AO52" s="30"/>
@@ -7885,33 +7788,33 @@
       <c r="BJ52" s="30"/>
       <c r="BK52" s="30"/>
       <c r="BL52" s="30"/>
-      <c r="BM52" s="30"/>
-      <c r="BN52" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO52" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP52" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ52" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM52" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN52" s="29" t="str">
+        <f>HLOOKUP(BM52,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO52" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP52" s="29" t="str">
+        <f>HLOOKUP(BO52,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ52" s="30"/>
       <c r="BR52" s="30"/>
       <c r="BS52" s="30"/>
-      <c r="BT52" s="30"/>
-      <c r="BU52" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV52" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT52" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU52" s="29" t="str">
+        <f>HLOOKUP(BT52,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV52" s="30"/>
       <c r="BW52" s="30"/>
       <c r="BX52" s="30"/>
       <c r="BY52" s="30"/>
@@ -7940,7 +7843,7 @@
       <c r="CV52" s="30"/>
       <c r="CW52" s="30"/>
       <c r="CX52" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY52" s="29" t="str">
@@ -7952,33 +7855,30 @@
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="33" t="str">
+        <f>IF(COUNTIF(D53:H53,"F")&gt;1,"F",IF(COUNTIF(D53:H53,"F")=1,"D-",IF(COUNTIF(D53:H53,"D")&gt;2,"D",IF(COUNTIF(D53:H53,"D")=2,"D+",IF(COUNTIF(D53:H53,"D")=1,"C-",IF(COUNTIF(D53:H53,"C")&gt;2,"C",IF(COUNTIF(D53:H53,"C")=2,"C+",IF(COUNTIF(D53:H53,"C")=1,"B-",IF(COUNTIF(D53:H53,"B")&gt;2,"B",IF(COUNTIF(D53:H53,"B")=2,"B+",IF(COUNTIF(D53:H53,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D53" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D53" s="27" t="str">
+      <c r="E53" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F53" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E53" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F53" s="28" t="str">
+      <c r="G53" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G53" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H53" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H53" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I53" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I53" s="26"/>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
       <c r="L53" s="26"/>
@@ -8005,15 +7905,15 @@
       <c r="AG53" s="26"/>
       <c r="AH53" s="26"/>
       <c r="AI53" s="26"/>
-      <c r="AJ53" s="26"/>
-      <c r="AK53" s="29">
-        <f>SUM('GRADE BOOK'!$J53:$AJ53)</f>
-        <v>0</v>
-      </c>
-      <c r="AL53" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ53" s="29">
+        <f>SUM('GRADE BOOK'!$I53:$AI53)</f>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="29" t="str">
+        <f>HLOOKUP(AJ53,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL53" s="30"/>
       <c r="AM53" s="30"/>
       <c r="AN53" s="30"/>
       <c r="AO53" s="30"/>
@@ -8040,33 +7940,33 @@
       <c r="BJ53" s="30"/>
       <c r="BK53" s="30"/>
       <c r="BL53" s="30"/>
-      <c r="BM53" s="30"/>
-      <c r="BN53" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO53" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP53" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ53" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM53" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN53" s="29" t="str">
+        <f>HLOOKUP(BM53,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO53" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP53" s="29" t="str">
+        <f>HLOOKUP(BO53,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ53" s="30"/>
       <c r="BR53" s="30"/>
       <c r="BS53" s="30"/>
-      <c r="BT53" s="30"/>
-      <c r="BU53" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV53" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT53" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU53" s="29" t="str">
+        <f>HLOOKUP(BT53,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV53" s="30"/>
       <c r="BW53" s="30"/>
       <c r="BX53" s="30"/>
       <c r="BY53" s="30"/>
@@ -8095,7 +7995,7 @@
       <c r="CV53" s="30"/>
       <c r="CW53" s="30"/>
       <c r="CX53" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY53" s="29" t="str">
@@ -8107,33 +8007,30 @@
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33" t="str">
+        <f>IF(COUNTIF(D54:H54,"F")&gt;1,"F",IF(COUNTIF(D54:H54,"F")=1,"D-",IF(COUNTIF(D54:H54,"D")&gt;2,"D",IF(COUNTIF(D54:H54,"D")=2,"D+",IF(COUNTIF(D54:H54,"D")=1,"C-",IF(COUNTIF(D54:H54,"C")&gt;2,"C",IF(COUNTIF(D54:H54,"C")=2,"C+",IF(COUNTIF(D54:H54,"C")=1,"B-",IF(COUNTIF(D54:H54,"B")&gt;2,"B",IF(COUNTIF(D54:H54,"B")=2,"B+",IF(COUNTIF(D54:H54,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D54" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D54" s="27" t="str">
+      <c r="E54" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F54" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E54" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F54" s="28" t="str">
+      <c r="G54" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G54" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H54" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H54" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I54" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
       <c r="L54" s="26"/>
@@ -8160,15 +8057,15 @@
       <c r="AG54" s="26"/>
       <c r="AH54" s="26"/>
       <c r="AI54" s="26"/>
-      <c r="AJ54" s="26"/>
-      <c r="AK54" s="29">
-        <f>SUM('GRADE BOOK'!$J54:$AJ54)</f>
-        <v>0</v>
-      </c>
-      <c r="AL54" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ54" s="29">
+        <f>SUM('GRADE BOOK'!$I54:$AI54)</f>
+        <v>0</v>
+      </c>
+      <c r="AK54" s="29" t="str">
+        <f>HLOOKUP(AJ54,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL54" s="30"/>
       <c r="AM54" s="30"/>
       <c r="AN54" s="30"/>
       <c r="AO54" s="30"/>
@@ -8195,33 +8092,33 @@
       <c r="BJ54" s="30"/>
       <c r="BK54" s="30"/>
       <c r="BL54" s="30"/>
-      <c r="BM54" s="30"/>
-      <c r="BN54" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO54" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP54" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ54" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM54" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN54" s="29" t="str">
+        <f>HLOOKUP(BM54,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO54" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP54" s="29" t="str">
+        <f>HLOOKUP(BO54,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ54" s="30"/>
       <c r="BR54" s="30"/>
       <c r="BS54" s="30"/>
-      <c r="BT54" s="30"/>
-      <c r="BU54" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV54" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT54" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU54" s="29" t="str">
+        <f>HLOOKUP(BT54,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV54" s="30"/>
       <c r="BW54" s="30"/>
       <c r="BX54" s="30"/>
       <c r="BY54" s="30"/>
@@ -8250,7 +8147,7 @@
       <c r="CV54" s="30"/>
       <c r="CW54" s="30"/>
       <c r="CX54" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY54" s="29" t="str">
@@ -8262,33 +8159,30 @@
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="33" t="str">
+        <f>IF(COUNTIF(D55:H55,"F")&gt;1,"F",IF(COUNTIF(D55:H55,"F")=1,"D-",IF(COUNTIF(D55:H55,"D")&gt;2,"D",IF(COUNTIF(D55:H55,"D")=2,"D+",IF(COUNTIF(D55:H55,"D")=1,"C-",IF(COUNTIF(D55:H55,"C")&gt;2,"C",IF(COUNTIF(D55:H55,"C")=2,"C+",IF(COUNTIF(D55:H55,"C")=1,"B-",IF(COUNTIF(D55:H55,"B")&gt;2,"B",IF(COUNTIF(D55:H55,"B")=2,"B+",IF(COUNTIF(D55:H55,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D55" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D55" s="27" t="str">
+      <c r="E55" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F55" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E55" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F55" s="28" t="str">
+      <c r="G55" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G55" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H55" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H55" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I55" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I55" s="26"/>
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
       <c r="L55" s="26"/>
@@ -8315,15 +8209,15 @@
       <c r="AG55" s="26"/>
       <c r="AH55" s="26"/>
       <c r="AI55" s="26"/>
-      <c r="AJ55" s="26"/>
-      <c r="AK55" s="29">
-        <f>SUM('GRADE BOOK'!$J55:$AJ55)</f>
-        <v>0</v>
-      </c>
-      <c r="AL55" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ55" s="29">
+        <f>SUM('GRADE BOOK'!$I55:$AI55)</f>
+        <v>0</v>
+      </c>
+      <c r="AK55" s="29" t="str">
+        <f>HLOOKUP(AJ55,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL55" s="30"/>
       <c r="AM55" s="30"/>
       <c r="AN55" s="30"/>
       <c r="AO55" s="30"/>
@@ -8350,33 +8244,33 @@
       <c r="BJ55" s="30"/>
       <c r="BK55" s="30"/>
       <c r="BL55" s="30"/>
-      <c r="BM55" s="30"/>
-      <c r="BN55" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO55" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP55" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ55" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM55" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN55" s="29" t="str">
+        <f>HLOOKUP(BM55,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO55" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP55" s="29" t="str">
+        <f>HLOOKUP(BO55,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ55" s="30"/>
       <c r="BR55" s="30"/>
       <c r="BS55" s="30"/>
-      <c r="BT55" s="30"/>
-      <c r="BU55" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV55" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT55" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU55" s="29" t="str">
+        <f>HLOOKUP(BT55,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV55" s="30"/>
       <c r="BW55" s="30"/>
       <c r="BX55" s="30"/>
       <c r="BY55" s="30"/>
@@ -8405,7 +8299,7 @@
       <c r="CV55" s="30"/>
       <c r="CW55" s="30"/>
       <c r="CX55" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY55" s="29" t="str">
@@ -8417,33 +8311,30 @@
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="33" t="str">
+        <f>IF(COUNTIF(D56:H56,"F")&gt;1,"F",IF(COUNTIF(D56:H56,"F")=1,"D-",IF(COUNTIF(D56:H56,"D")&gt;2,"D",IF(COUNTIF(D56:H56,"D")=2,"D+",IF(COUNTIF(D56:H56,"D")=1,"C-",IF(COUNTIF(D56:H56,"C")&gt;2,"C",IF(COUNTIF(D56:H56,"C")=2,"C+",IF(COUNTIF(D56:H56,"C")=1,"B-",IF(COUNTIF(D56:H56,"B")&gt;2,"B",IF(COUNTIF(D56:H56,"B")=2,"B+",IF(COUNTIF(D56:H56,"B")=1,"A-","A")))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="D56" s="27" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="D56" s="27" t="str">
+      <c r="E56" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F56" s="28" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="E56" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="F56" s="28" t="str">
+      <c r="G56" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="G56" s="28" t="str">
+        <v>D</v>
+      </c>
+      <c r="H56" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="H56" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="I56" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>F</v>
+      </c>
+      <c r="I56" s="26"/>
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
       <c r="L56" s="26"/>
@@ -8470,15 +8361,15 @@
       <c r="AG56" s="26"/>
       <c r="AH56" s="26"/>
       <c r="AI56" s="26"/>
-      <c r="AJ56" s="26"/>
-      <c r="AK56" s="29">
-        <f>SUM('GRADE BOOK'!$J56:$AJ56)</f>
-        <v>0</v>
-      </c>
-      <c r="AL56" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AJ56" s="29">
+        <f>SUM('GRADE BOOK'!$I56:$AI56)</f>
+        <v>0</v>
+      </c>
+      <c r="AK56" s="29" t="str">
+        <f>HLOOKUP(AJ56,A$8:F$13,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
       <c r="AN56" s="30"/>
       <c r="AO56" s="30"/>
@@ -8505,33 +8396,33 @@
       <c r="BJ56" s="30"/>
       <c r="BK56" s="30"/>
       <c r="BL56" s="30"/>
-      <c r="BM56" s="30"/>
-      <c r="BN56" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO56" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v>F</v>
-      </c>
-      <c r="BP56" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ56" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="BM56" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN56" s="29" t="str">
+        <f>HLOOKUP(BM56,A$9:F$13,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BO56" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP56" s="29" t="str">
+        <f>HLOOKUP(BO56,B$10:F$13,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BQ56" s="30"/>
       <c r="BR56" s="30"/>
       <c r="BS56" s="30"/>
-      <c r="BT56" s="30"/>
-      <c r="BU56" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV56" s="29" t="str">
-        <f t="shared" si="8"/>
+      <c r="BT56" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU56" s="29" t="str">
+        <f>HLOOKUP(BT56,A$11:F$13,3,TRUE)</f>
         <v>D</v>
       </c>
+      <c r="BV56" s="30"/>
       <c r="BW56" s="30"/>
       <c r="BX56" s="30"/>
       <c r="BY56" s="30"/>
@@ -8560,7 +8451,7 @@
       <c r="CV56" s="30"/>
       <c r="CW56" s="30"/>
       <c r="CX56" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CY56" s="29" t="str">
@@ -8590,7 +8481,6 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
     </row>
     <row r="58" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
@@ -8627,7 +8517,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
